--- a/result/生词本导入模版_3.xlsx
+++ b/result/生词本导入模版_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>misconstrue</t>
+          <t>mischievous</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vt. 误解，曲解： to mistake the meaning of</t>
+          <t>adj. 调皮的，调皮的： playful in a naughty or teasing way
+adj. 有害的： causing harm or trouble</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>An outsider might misconstrue the nature of the phenomenon.   局外者可能会曲解这个现象的本质</t>
+          <t>The mischievous child broke the vase.  调皮的孩子打碎了花瓶
+mischievous rumors that defame him  恶意中伤他的谣言</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>miscreant</t>
+          <t>misconstrue</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 恶棍，罪犯： one who behaves criminally or viciously</t>
+          <t>vt. 误解，曲解： to mistake the meaning of</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>robbed by a bunch of miscreants  遭到了一伙歹徒的抢劫</t>
+          <t>An outsider might misconstrue the nature of the phenomenon.   局外者可能会曲解这个现象的本质</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +504,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>misdemeanor</t>
+          <t>miscreant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 轻罪： a crime less serious than a felony</t>
+          <t>n. 恶棍，罪犯： one who behaves criminally or viciously</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>charged with several misdemeanors  被指控几项轻罪</t>
+          <t>robbed by a bunch of miscreants  遭到了一伙歹徒的抢劫</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>miserly</t>
+          <t>misdemeanor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 吝啬的： marked by grasping meanness and penuriousness</t>
+          <t>n. 轻罪： a crime less serious than a felony</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>a miserly couple devoid of social conscience and responsibility  一对没有社会良心和责任感的吝啬夫妻</t>
+          <t>charged with several misdemeanors  被指控几项轻罪</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>misfortune</t>
+          <t>miserly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 不幸： bad fortune or ill luck</t>
+          <t>adj. 吝啬的： marked by grasping meanness and penuriousness</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>unable to grasp why he had been struck by such a misfortune  无法理解他为何会遇上如此不幸之事</t>
+          <t>a miserly couple devoid of social conscience and responsibility  一对没有社会良心和责任感的吝啬夫妻</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,17 +570,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>misgiving</t>
+          <t>misfortune</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 担忧，疑虑： a feeling of doubt or suspicion especially concerning a future event</t>
+          <t>n. 不幸： bad fortune or ill luck</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No one can dispel his misgiving.   没有人能打消他的疑虑</t>
+          <t>unable to grasp why he had been struck by such a misfortune  无法理解他为何会遇上如此不幸之事</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +592,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mishap</t>
+          <t>misgiving</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 不幸之事： an unfortunate accident</t>
+          <t>n. 担忧，疑虑： a feeling of doubt or suspicion especially concerning a future event</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mishap followed wherever he went.   不论他走到哪里，厄运总是形影相随</t>
+          <t>No one can dispel his misgiving.   没有人能打消他的疑虑</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +614,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>misrepresent</t>
+          <t>mishap</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vt. 误传，篡改： to give an incorrect or misleading representation of</t>
+          <t>n. 不幸之事： an unfortunate accident</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>misrepresent the facts  篡改事实真相</t>
+          <t>Mishap followed wherever he went.   不论他走到哪里，厄运总是形影相随</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +636,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mite</t>
+          <t>misrepresent</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 微小的东西，很少的钱： a very small object, creature, or particle, a very small sum of money</t>
+          <t>vt. 误传，篡改： to give an incorrect or misleading representation of</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>I have only a mite left to buy lunch for the rest of the week.   我只剩下一点钱来买剩下一周几天的午饭了</t>
+          <t>misrepresent the facts  篡改事实真相</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +658,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mitigate</t>
+          <t>mite</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vt. 减轻痛苦，使缓和： to make less severe or painful</t>
+          <t>n. 微小的东西，很少的钱： a very small object, creature, or particle, a very small sum of money</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>powerful drugs that mitigate pains  强力的镇痛剂</t>
+          <t>I have only a mite left to buy lunch for the rest of the week.   我只剩下一点钱来买剩下一周几天的午饭了</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,88 +680,88 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>mitigate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vt. 减轻痛苦，使缓和： to make less severe or painful</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>powerful drugs that mitigate pains  强力的镇痛剂</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>mobile</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>adj. 可移动的： capable of moving or being moved
 adj. 可变的： changeable in appearance, mood, or purpose</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>a mobile missile launcher  可移动导弹发射装置
 a highly mobile face  善变的面孔</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>mockery</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n. 鄙视，嘲弄： scornfully contemptuous ridicule
 n. 以嘲笑为目的的模仿： a false, derisive, or impudent imitation</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Her deliberate mockery triggered a fierce fight.  她的蓄意嘲弄引起了一场激烈的打斗
 arbitrary methods that make a mockery of justice  嘲讽司法公正的仲裁体系</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>moderate</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>vt. 使缓和： to lessen the intensity or extremeness of
 adj. 适度的，中庸的： being within reasonable limits; not excessive or extreme</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Sopranos and tenors moderates their voices to fit the size of the theater.   女高音和男高音们根据剧场的大小调节他们的声音以创造合适的效果</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>modicum</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>n. 少量： a small portion; a limited quantity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>a modicum of food quota  极少量的食物配额</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,17 +773,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mollify</t>
+          <t>modicum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 平息抚慰，缓和： to calm in temper or feeling</t>
+          <t>n. 少量： a small portion; a limited quantity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mollify the angry customer  平息消费者的怒气</t>
+          <t>a modicum of food quota  极少量的食物配额</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,17 +795,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mollycoddle</t>
+          <t>mollify</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vt. 溺爱： to treat with an excessive or absurd degree of indulgence and attention</t>
+          <t>vt. 平息抚慰，缓和： to calm in temper or feeling</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mollycoddle his only grandson  溺爱他唯一的孙子</t>
+          <t>mollify the angry customer  平息消费者的怒气</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,17 +817,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>molt</t>
+          <t>mollycoddle</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vi. 脱（羽、皮等）： to shed hair, feathers, shell, horns, or an outer layer periodically</t>
+          <t>vt. 溺爱： to treat with an excessive or absurd degree of indulgence and attention</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Snakes molt as they grow, shedding the old skin and growing a larger new skin.   随着年龄的增长，蛇会脱去老皮，长出新皮</t>
+          <t>mollycoddle his only grandson  溺爱他唯一的孙子</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,17 +839,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>momentous</t>
+          <t>molt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 极重要的： of utmost importance; of outstanding significance or consequence</t>
+          <t>vi. 脱（羽、皮等）： to shed hair, feathers, shell, horns, or an outer layer periodically</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Battle of Stalingrad is a momentous campaign in World War 2.   斯大林格勒之战是第二次世界大战中具有重大意义的一次战役</t>
+          <t>Snakes molt as they grow, shedding the old skin and growing a larger new skin.   随着年龄的增长，蛇会脱去老皮，长出新皮</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,17 +861,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>momentous</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 动力： impetus of a physical object in motion</t>
+          <t>adj. 极重要的： of utmost importance; of outstanding significance or consequence</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Their luck began to pick up momentum.   他们的运气开始转旺</t>
+          <t>Battle of Stalingrad is a momentous campaign in World War 2.   斯大林格勒之战是第二次世界大战中具有重大意义的一次战役</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,17 +883,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mongrel</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 杂种的，混血儿的： of mixed origin or character</t>
+          <t>n. 动力： impetus of a physical object in motion</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>homeless mongrel dogs on the streets  街上的流浪杂种狗</t>
+          <t>Their luck began to pick up momentum.   他们的运气开始转旺</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,43 +905,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>mongrel</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>adj. 杂种的，混血儿的： of mixed origin or character</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>homeless mongrel dogs on the streets  街上的流浪杂种狗</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>monochromatic</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>adj. 单色的： having or consisting of one color or hue
 adj. 单调无聊的： lacking variety, creativity, or excitement</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>monochromatic filter  单色滤光片
 a monochromatic article eulogizing a hero  一个无聊的赞颂英雄的文章</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>monologue</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>n. 独白：a dramatic sketch performed by one actor</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>deliver a tedious monologue  做了一个冗长的独白</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -949,43 +951,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>monologue</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n. 独白：a dramatic sketch performed by one actor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>deliver a tedious monologue  做了一个冗长的独白</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>monotonous</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>adj. （声音）单调的： uttered or sounded in one unvarying tone
 adj. 清一色的，无聊的： tediously uniform or unvarying</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>a monotonous apathetic voice  单调而冷漠的声音
 a sparkle in the monotonous background  单调背景中的一个亮点</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>montage</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>n. 大杂烩： an unorganized collection or mixture of various things</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>My memories of the childhood trip are a montage of the sights of two rivers, smells of hotpots, and soundsof light railway of Chongqing.   我孩提时代旅行的记忆就是由两江风光、火锅的香味以及重庆的轻轨声杂糅而成的</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -995,17 +997,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>moratorium</t>
+          <t>montage</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 延期，暂缓施行： a suspension of activity</t>
+          <t>n. 大杂烩： an unorganized collection or mixture of various things</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>a moratorium on nuclear tests  暂缓核试验</t>
+          <t>My memories of the childhood trip are a montage of the sights of two rivers, smells of hotpots, and soundsof light railway of Chongqing.   我孩提时代旅行的记忆就是由两江风光、火锅的香味以及重庆的轻轨声杂糅而成的</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1017,43 +1019,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>moratorium</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n. 延期，暂缓施行： a suspension of activity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>a moratorium on nuclear tests  暂缓核试验</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>morbid</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>adj. 病态的： affected with or induced by disease
 adj. 思想性格变态的： characterized by preoccupation with unwholesome thoughts or feelings</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>exhibit a morbid fascination  展现出一种病态的迷恋
 read the account of the murder with a morbid interest  怀着病态的心态读谋杀报告</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>mordant</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>adj. 尖酸刻薄的： biting and caustic in thought, manner, or style</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>feel embarrassed about the mordant satire of the critics  对评论家刻薄的讽刺感到尴尬</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1063,43 +1065,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>mordant</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>adj. 尖酸刻薄的： biting and caustic in thought, manner, or style</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>feel embarrassed about the mordant satire of the critics  对评论家刻薄的讽刺感到尴尬</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>moribund</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>adj. 即将结束的，垂死的： approaching death; about to die
 adj. 即将过时的： on the verge of becoming obsolete</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The nation’s banking industry was moribund.   这个国家的银行业危在旦夕
 Some social conventions have been rendered moribund in face of modernization.   不少传统习俗在现代化的影响下变得岌岌可危</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>morose</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>adj. 忧郁的： having a sullen and gloomy disposition</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>morose job seekers who are inured to rejection  习惯了被拒的郁郁寡欢的求职者</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1109,19 +1111,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mosaic</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. 综合物，马赛克般的东西： an unorganized collection or mixture of various things</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>a mosaic of testimony from various witnesses  从不同证人中得来的综合证词</t>
-        </is>
-      </c>
+          <t>morose</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1131,17 +1125,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mosque</t>
+          <t>mosaic</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 清真寺： a building used for public worship by Muslim</t>
+          <t>n. 综合物，马赛克般的东西： an unorganized collection or mixture of various things</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a deadly suicide attack at the mosque  在清真寺发生的致命自杀性袭击</t>
+          <t>a mosaic of testimony from various witnesses  从不同证人中得来的综合证词</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1153,17 +1147,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>motile</t>
+          <t>mosque</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adj. 能动的：exhibiting or capable of movement</t>
+          <t>n. 清真寺： a building used for public worship by Muslim</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aircraft carriers are recognized as a motile combat platform.   航空母舰是一种移动作战平台</t>
+          <t>a deadly suicide attack at the mosque  在清真寺发生的致命自杀性袭击</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1175,17 +1169,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>motivate</t>
+          <t>motile</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vt. 刺激，激发： to provide with an incentive; move to action</t>
+          <t>adj. 能动的：exhibiting or capable of movement</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>questions that excite and motivate youth  激发青年人的问题</t>
+          <t>Aircraft carriers are recognized as a motile combat platform.   航空母舰是一种移动作战平台</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1197,17 +1191,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>motley</t>
+          <t>motivate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 混杂的，富于变化的： (especially of colors) having elements of great variety or incongruity</t>
+          <t>vt. 刺激，激发： to provide with an incentive; move to action</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>an arrangement of motley flowers  多种不同花束的组合</t>
+          <t>questions that excite and motivate youth  激发青年人的问题</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1219,17 +1213,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mottle</t>
+          <t>motley</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vt. 标记上杂色斑点： to mark with spots or blotches of different shades or colors</t>
+          <t>adj. 混杂的，富于变化的： (especially of colors) having elements of great variety or incongruity</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>a black horse mottled with white  身上带有白色斑点的黑马</t>
+          <t>an arrangement of motley flowers  多种不同花束的组合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1241,17 +1235,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>motto</t>
+          <t>mottle</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 座右铭： a short expression of a guiding principle</t>
+          <t>vt. 标记上杂色斑点： to mark with spots or blotches of different shades or colors</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>“Semper fidelis” is the motto of US Marine Corps.   “永远忠诚”是美国海军陆战队的格言</t>
+          <t>a black horse mottled with white  身上带有白色斑点的黑马</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1263,42 +1257,42 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>motto</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n. 座右铭： a short expression of a guiding principle</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>“Semper fidelis” is the motto of US Marine Corps.   “永远忠诚”是美国海军陆战队的格言</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>mournful</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>adj. 悲伤的： feeling or expressing sorrow or grief</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>The mournful survivors of the disaster were faced with the grim task of burying the dead.  悲 伤 的 幸 存者面临着掩埋灾难中死者尸体的可怕任务
 Mrs.   Murphy fainted at the mournful news of her son’s death.   Murphy  太太听到她儿子的死讯后晕了过去</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>n. 运动： the act or process of moving</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>There appears to be some movement in the bush.   树丛中似乎有动静</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1308,45 +1302,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>movement</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n. 运动： the act or process of moving</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>There appears to be some movement in the bush.   树丛中似乎有动静</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>muddy</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 不干净的： not clean
 adj. 浑浊的，不清晰的： lacking in clarity or brightness
 v. 使难以理解： to make (something) unclear to the understanding</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>got muddy after playing outside  在外面玩弄得很脏
 a muddy recording  嘈杂不清的纪录
 That point is irrelevant and will just muddy the issue we're trying to resolve.  那个观点和讨论我们的问题毫不相干，它只会妨碍我们对于问题的理解</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>muffle</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>vt. 使消声： to wrap or pad in order to deaden the sound</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>close the window to muffle the outside noises  关上窗户以减少外界的噪音</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1356,17 +1350,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mulish</t>
+          <t>muffle</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 固执的： unreasonably and inflexibly obstinate</t>
+          <t>vt. 使消声： to wrap or pad in order to deaden the sound</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a mulish determination to act on his own  铁了心要单打独斗</t>
+          <t>close the window to muffle the outside noises  关上窗户以减少外界的噪音</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1378,17 +1372,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mumble</t>
+          <t>mulish</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>v. 说话含糊： to utter words in a low confused indistinct manner</t>
+          <t>adj. 固执的： unreasonably and inflexibly obstinate</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>He mumbled an apology reluctantly.   他不情愿地咕哝了句抱歉</t>
+          <t>a mulish determination to act on his own  铁了心要单打独斗</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1400,43 +1394,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>mumble</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>v. 说话含糊： to utter words in a low confused indistinct manner</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>He mumbled an apology reluctantly.   他不情愿地咕哝了句抱歉</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>mundane</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj. 尘世的，世俗化的： of, relating to, or typical of this world
 adj. 平凡的： relating to, characteristic of, or concerned with commonplaces</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>As for opera, I prefer mundane to religious themes.  与宗教主题相比，我更喜欢世俗主题的歌剧
 mundane concerns of day-to-day life  关于日常生活的一般顾虑</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>munificent</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>adj. 慷慨的： very liberal in giving</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>The university received a munificent foundation grant.   大学收到了一笔慷慨的基金资助</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1446,67 +1440,67 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>munificent</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>adj. 慷慨的： very liberal in giving</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The university received a munificent foundation grant.   大学收到了一笔慷慨的基金资助</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>murky</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>adj. 黯淡的，昏暗的： being without light or without much light
 adj. 模糊的，晦涩的： lacking clarity or distinctness</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>I didn't like walking around the murky campground without a flashlight.  我不喜欢在没有手电的情况下在营地里走动
 He felt lost in the murky bureaucratic rhetoric.   他感觉自己被官僚主义的晦涩说辞弄晕了</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>murmur</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>n. 小声的话语： a low, indistinct, continuous sound
 v. 低声抱怨，发牢骚： to complain in low mumbling tones; grumble</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语
 We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>mutate</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>v. （使）改变，（使）变异： to undergo or cause to undergo mutation</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Some chromosomes started to mutate after exposure to X-Ray.   经 X  光照射之后部分染色体发生了变异</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1516,44 +1510,44 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>mutate</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>v. （使）改变，（使）变异： to undergo or cause to undergo mutation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Some chromosomes started to mutate after exposure to X-Ray.   经 X  光照射之后部分染色体发生了变异</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>mute</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 不说话的，缄默的： deliberately refraining from speech
 vt. 使颜色、音调等柔和： to soften the tone, color, shade, or hue of
 vt. 减弱声音： to soften or muffle the sound of</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>He always remained mute no matter how much we pleaded for an answer  不论我们怎么恳求回答，他总是保持沉默
 mute a color  对颜色进行柔化</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mutter</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>vi. 低声抱怨： to murmur complainingly or angrily</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>mutter about the difficult assignment  抱怨作业太难</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1563,17 +1557,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>myopic</t>
+          <t>mutter</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 缺乏远见的，缺乏辨别能力的： a lack of foresight or discernment</t>
+          <t>vi. 低声抱怨： to murmur complainingly or angrily</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a myopic view on climate change  关于气候变化缺乏远见的观点</t>
+          <t>mutter about the difficult assignment  抱怨作业太难</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1585,17 +1579,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>myriad</t>
+          <t>myopic</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 无限的，大量的： constituting a very large, indefinite number</t>
+          <t>adj. 缺乏远见的，缺乏辨别能力的： a lack of foresight or discernment</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>the myriad stars of a summer night  夏日夜空中的无尽繁星</t>
+          <t>a myopic view on climate change  关于气候变化缺乏远见的观点</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1607,17 +1601,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>nadir</t>
+          <t>myriad</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>n. 最低点： the lowest point</t>
+          <t>adj. 无限的，大量的： constituting a very large, indefinite number</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>the nadir on the curve  曲线上的最低点</t>
+          <t>the myriad stars of a summer night  夏日夜空中的无尽繁星</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1629,17 +1623,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>naïve</t>
+          <t>nadir</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 天真纯朴的： lacking worldly experience and understanding, simple and guileless</t>
+          <t>n. 最低点： the lowest point</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>a child with a naïve charm  天真无邪的孩子</t>
+          <t>the nadir on the curve  曲线上的最低点</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1651,17 +1645,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>narcissism</t>
+          <t>naïve</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>n. 自恋： excessive love or admiration of oneself</t>
+          <t>adj. 天真纯朴的： lacking worldly experience and understanding, simple and guileless</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>In his narcissism, he just assumed that everyone else wanted to hear the tiny details of his day.   在 他 自恋的眼中，所有人仿佛都想要听他日常生活里的细枝末节</t>
+          <t>a child with a naïve charm  天真无邪的孩子</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1673,17 +1667,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nascent</t>
+          <t>narcissism</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 新生的： coming or having recently come into existence</t>
+          <t>n. 自恋： excessive love or admiration of oneself</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The rise of the nascent middle class catalyzed a new economic boom.  新生中产阶级的崛起催生了一场新的经济繁荣</t>
+          <t>In his narcissism, he just assumed that everyone else wanted to hear the tiny details of his day.   在 他 自恋的眼中，所有人仿佛都想要听他日常生活里的细枝末节</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1695,17 +1689,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>natty</t>
+          <t>nascent</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 整洁的，时髦的： trimly neat and tidy</t>
+          <t>adj. 新生的： coming or having recently come into existence</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>a natty young woman  整洁漂亮的年轻女子</t>
+          <t>The rise of the nascent middle class catalyzed a new economic boom.  新生中产阶级的崛起催生了一场新的经济繁荣</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1717,17 +1711,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nauseate</t>
+          <t>natty</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>v. （使）厌恶，（使）作呕： to feel or cause to feel loathing or disgust</t>
+          <t>adj. 整洁的，时髦的： trimly neat and tidy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>The malodor of the rotten meat made us nauseate.  腐肉的恶臭让我们恶心</t>
+          <t>a natty young woman  整洁漂亮的年轻女子</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1739,17 +1733,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nautical</t>
+          <t>nauseate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 航海的： of, relating to, or characteristic of ships, shipping, sailors, or navigation on a body ofwater</t>
+          <t>v. （使）厌恶，（使）作呕： to feel or cause to feel loathing or disgust</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nautical mile  海里</t>
+          <t>The malodor of the rotten meat made us nauseate.  腐肉的恶臭让我们恶心</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1761,15 +1755,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>naysay</t>
+          <t>nautical</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vt. 拒绝，否认： to oppose, deny, or take a pessimistic or negative view of</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>adj. 航海的： of, relating to, or characteristic of ships, shipping, sailors, or navigation on a body ofwater</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>nautical mile  海里</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1779,19 +1777,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nebulous</t>
+          <t>naysay</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 模糊的： indistinct, vague</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>a nebulous description of the topic  对于主题的模糊描述</t>
-        </is>
-      </c>
+          <t>vt. 拒绝，否认： to oppose, deny, or take a pessimistic or negative view of</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1801,17 +1795,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>nefarious</t>
+          <t>nebulous</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 极坏的，邪恶的： flagrantly wicked or impious</t>
+          <t>adj. 模糊的： indistinct, vague</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a nefarious scheme to assassinate the archbishop  企图刺杀大主教的邪恶阴谋</t>
+          <t>a nebulous description of the topic  对于主题的模糊描述</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1823,17 +1817,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>negation</t>
+          <t>needy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>n. 否定： the opposite or absence of something regarded as actual, positive, or affirmative</t>
+          <t>adj. 贫困的：being in need; impoverished, poor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>issued specific negations of all of the charges against her  发表了明确的声明，否定了所有对她的指控</t>
+          <t>As a child, she was extremely needy and had no self-confidence.   她是一个非常贫穷的小孩，因此缺乏自信</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1845,17 +1839,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>negligent</t>
+          <t>nefarious</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 疏忽大意的： failing to give proper attention or care</t>
+          <t>adj. 极坏的，邪恶的： flagrantly wicked or impious</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>negligent in taking care of the children  粗心大意地照顾孩子</t>
+          <t>a nefarious scheme to assassinate the archbishop  企图刺杀大主教的邪恶阴谋</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1867,61 +1861,65 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>negation</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>n. 否定： the opposite or absence of something regarded as actual, positive, or affirmative</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>issued specific negations of all of the charges against her  发表了明确的声明，否定了所有对她的指控</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>negligent</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. 疏忽大意的： failing to give proper attention or care</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>negligent in taking care of the children  粗心大意地照顾孩子</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>negotiate</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vi. 商量，谈判： to arrange or settle by discussion and mutual agreement
 vi. 谋划： plan out usually with subtle skill or care</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>negotiate the term of truce  共商停战事宜
 The prisoners negotiated their escape by using Morse code to tap messages to each other through thewalls.  犯人们通过敲击墙壁来传达莫尔斯电码，从而密谋了他们的逃跑计划</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>neophyte</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>n. 初学者，新手： a beginner or novice</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>a novice in the theater who had never even had a walk-on role  一个连龙套都没跑过的新演员</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>nerve</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>n. （坚强的）意志，勇气： power of endurance or control; strength of mind to carry on in spite ofdanger</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1931,17 +1929,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nettle</t>
+          <t>neophyte</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vt. 惹怒： to arouse to sharp but transitory annoyance or anger</t>
+          <t>n. 初学者，新手： a beginner or novice</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>His pompous attitude nettled several people.   他自大的性格得罪了不少人</t>
+          <t>a novice in the theater who had never even had a walk-on role  一个连龙套都没跑过的新演员</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1953,92 +1951,86 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>nerve</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>n. （坚强的）意志，勇气： power of endurance or control; strength of mind to carry on in spite ofdanger</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>nettle</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>vt. 惹怒： to arouse to sharp but transitory annoyance or anger</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>His pompous attitude nettled several people.   他自大的性格得罪了不少人</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>neutralize</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>vt. 中和： to cause (an acid or base) to undergo neutralization
 vt. 破坏，使无效： to make inoperative or ineffective usually by means of an opposite force, influence,or effect</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>industrial exhaust neutralized by lime  被石灰中和的工业废气
 influenced by the kind of propaganda that is difficult to neutralize  被一种难以消除的宣传攻势所影响</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>nicety</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>n. 准确，精确： careful attention to details; delicate exactness
 n. 细微之处： a fine point or distinction</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>There's a nicety of detail in his meticulously painted landscapes.   在他精心绘制的景观图中，有着十分精准翔实的细节
 the niceties of table manner  餐桌礼仪的细微之处
 niceties of diplomatic protocol  外交礼节中的细节</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>nexus</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>n. 连结： a means of connection
-n. 核心，最重要的地带： a thing or place that is of greatest importance to an activity or interest</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Correlativity does not sufficiently lead to causal nexus.   相关性不是因果关联的充分条件
-As the nexus for three great religions, Jerusalem has had a troubled as well as illustrious history.  作为三大宗教的圣城，耶路撒冷有着动荡而辉煌的历史</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>nibble</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>vt. 小口咬： to eat with small, quick bites or in small morsels</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>waves nibbling the shore  缓慢侵蚀海岸的浪</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2048,19 +2040,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>n. 不存在，零： nothing; zero</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>reduced to nil  消逝殆尽</t>
-        </is>
-      </c>
+          <t>nexus</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2070,182 +2054,182 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>nibble</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>vt. 小口咬： to eat with small, quick bites or in small morsels</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>waves nibbling the shore  缓慢侵蚀海岸的浪</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>n. 不存在，零： nothing; zero</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>reduced to nil  消逝殆尽</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>nip</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>n. 少量： a very small amount
 vi. 小口吃喝： to sip (alcoholic liquor) in small amounts</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>I'll have just a nip of your sandwich.   我只吃一点点你的三明治</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>nitpick</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>v. 吹毛求疵： to criticize by nit-picking</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>a peevish critic always ready to quibble  一个总是吹毛求疵的古怪评论家</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>nocturnal</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>adj. 夜间的： of, relating to, or occurring in the night
 adj. 夜间活动的： active at night</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>a nocturnal raid  夜间突袭
 a nocturnal predator  夜间活动的捕食者</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>noisome</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. 有害的，有毒的： noxious, harmful
 adj. 恶臭的： offensive to the senses and especially to the sense of smell
 adj. 非常令人厌恶的： highly obnoxious or objectionable</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>noisome chemical fumes  有害的化学烟雾
 noisome garbage  恶臭的垃圾
 noisome habits of littering  让人反感的随地乱扔垃圾的坏习惯</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>nomad</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>adj./n. 游牧的；居无定所的人： a member of a people who have no fixed residence but move fromplace to place usually seasonally and within a well-defined territory</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>after college she became quite the nomad, backpacking through Europe with no particular destination</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>nominal</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>adj. 不重要的： so small or unimportant as to warrant little or no attention
 adj. 名义上的： existing or being something in name or form only</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>His involvement was nominal.   他的参与不太重要。
 nominal head of the party  党派的名义首领</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>nonchalant</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>adj. 冷漠的： having an air of easy unconcern or indifference</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>She was surprisingly nonchalant about winning the award.   她竟然对得奖很淡然。</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>nondescript</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>adj. 平凡的，不吸引人的： lacking distinctive or interesting qualities</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Their performance was disappointingly nondescript.  他们的演出令人失望，味同嚼蜡。</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2255,65 +2239,65 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>nonchalant</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>adj. 冷漠的： having an air of easy unconcern or indifference</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>She was surprisingly nonchalant about winning the award.   她竟然对得奖很淡然。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>nondescript</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adj. 平凡的，不吸引人的： lacking distinctive or interesting qualities</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Their performance was disappointingly nondescript.  他们的演出令人失望，味同嚼蜡。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>nonentity</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>n. 不重要的人： a person or thing of little consequence or significance
 n. 虚构的东西： a conception or image created by the imagination and having no objective reality</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>she was so quiet she was almost a nonentity at the meeting  她非常沉默，在会议上是个边缘人物
 the arctic circle is a nonentity—you won't see it on the way to the north pole  北极圈是虚构的概念，去北极的路上你不会见到那么一个圈</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>nonplus</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>vt.迷惑，困惑： use to be at a loss as to what to say, think, or do: perplex</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>I was nonplussed by his openly expressed admiration of me.  我被她公开表现的仰慕弄得很窘迫。</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>nonsense</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>n. 无意义的话，废话： words or language having no meaning or conveying no intelligible ideas</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Many of the words in the poem are nonsense.   这首诗歌当中很多词都是废话。</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2323,64 +2307,62 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>nonplus</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>vt.迷惑，困惑： use to be at a loss as to what to say, think, or do: perplex</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>I was nonplussed by his openly expressed admiration of me.  我被她公开表现的仰慕弄得很窘迫。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>nonsense</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n. 无意义的话，废话： words or language having no meaning or conveying no intelligible ideas</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Many of the words in the poem are nonsense.   这首诗歌当中很多词都是废话。</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>notch</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>n. 刻痕： a V-shaped cut. Such a cut used for keeping a record
 v. 通过努力获得： to obtain (as a goal) through effort</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>a stunning performance that notched up a second Academy Award for the actor  出 色 的 表演 为 该演 员拿到了第二座小金人</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>adj. 新奇的： strikingly new, unusual, or different</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>a novel scheme to collect money  一种新颖的筹钱手段</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>noxious</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>adj. 有害的，有毒的： harmful to living things; injurious to health
-adj. 产生强烈厌恶的： causing intense displeasure, disgust, or resentment</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>noxious waste  有害的废弃物
-a noxious new breed of horror movie in which graphic depictions of torture are presented as entertainment</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2392,17 +2374,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>nuance</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 细微的差异： a subtle distinction or variation</t>
+          <t>adj. 新奇的： strikingly new, unusual, or different</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>a poem of little depth and nuance  一首没有什么深度、没有什么辨识度的诗</t>
+          <t>a novel scheme to collect money  一种新颖的筹钱手段</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2414,157 +2396,157 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>noxious</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>adj. 有害的，有毒的： harmful to living things; injurious to health</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>noxious waste  有害的废弃物</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>nuance</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n. 细微的差异： a subtle distinction or variation</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>a poem of little depth and nuance  一首没有什么深度、没有什么辨识度的诗</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>nudge</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>vt. 用肘推以引起注意： to seek the attention of by a push of the elbow
 vt. 说服某人做某事： to try to persuade (someone) through earnest appeals to follow a course ofaction</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>accidentally nudged me as he squeezed past  他过去的时候不小心用肘碰到了我
 the car salesman nudged me into taking a test-drive  汽车销售员说服我进行试驾</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>nugatory</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>adj. 无关紧要的： of little or no consequence; inconsequential</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>the book is entertaining, but its contributions to Shakespearean scholarship are nugatory  这 本 书 娱 乐性不错，但是对于莎士比亚研究的贡献微不足道</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>nurture</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>vt. 提供营养： to supply with nourishment
 vt. 培育，培养： to provide (someone) with moral or spiritual understanding</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>nurtured her children through the winters with home-cooked soup  一整个冬天都给孩子们喂自制的汤
 he feels that his lifelong practice of reading the Bible daily has nurtured him in ways he cannot describe</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>oath</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n. 誓言： a solemn, formal declaration or promise to fulfill a pledge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>an oath to defend the nation  保卫祖国的誓言</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>obdurate</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 固执的： resistant to persuasion or softening influences
 adj. 冷酷无情的： having or showing a lack of sympathy or tender feelings</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>She is known for her obdurate determination.   她以坚定不移著称。
 the obdurate refusal of the crotchety old man to let the neighborhood kids retrieve their ball from hisbackyard  那个怪老头冷酷无情地拒绝了孩子们进他后院找球的请求</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>obedient</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>adj. 服从的，顺从的： submissive to the restraint or command of authority</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>that girl is so obedient that she does everything the first time she is asked  这个妹子如此顺从，叫她做事随叫随到</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>obeisance</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>n. 敬礼，尊重： a movement of the body made in token of respect or submission</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>makes obeisance to her mentors  向她的导师们致敬</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>obfuscate</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>vt. 使困惑，使模糊： to make so confused or opaque as to be difficult to perceive or understand</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>obfuscate the reader  让读者困惑</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2574,17 +2556,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>obligatory</t>
+          <t>obedient</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 强制性的： of the nature of an obligation; compulsory</t>
+          <t>adj. 服从的，顺从的： submissive to the restraint or command of authority</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>obligatory military service  强制性的服军役</t>
+          <t>that girl is so obedient that she does everything the first time she is asked  这个妹子如此顺从，叫她做事随叫随到</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2596,17 +2578,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>obliging</t>
+          <t>obeisance</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adj. 乐于助人的： willing to do favors</t>
+          <t>n. 敬礼，尊重： a movement of the body made in token of respect or submission</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>an obliging concierge used his pull to get us reservations at the town's hottest restaurant  一 个 好 心 的看房人利用他的影响力帮我们在镇上最火爆的餐厅订到了座</t>
+          <t>makes obeisance to her mentors  向她的导师们致敬</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2618,17 +2600,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>oblique</t>
+          <t>obfuscate</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 斜的： inclined or twisted to one side</t>
+          <t>vt. 使困惑，使模糊： to make so confused or opaque as to be difficult to perceive or understand</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>gave the eavesdropper an oblique glance  给了偷听者一个白眼</t>
+          <t>obfuscate the reader  让读者困惑</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2640,17 +2622,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>obliterate</t>
+          <t>obligatory</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>vt. 除去： to remove from existence</t>
+          <t>adj. 强制性的： of the nature of an obligation; compulsory</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>the March snowstorm obliterated our hopes for an early spring  三月的暴风雪摧毁了我们对于一个早春的念想</t>
+          <t>obligatory military service  强制性的服军役</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2662,17 +2644,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>oblivious</t>
+          <t>obliging</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 不知道的，不知情的： lacking conscious awareness; not informed about or aware of something</t>
+          <t>adj. 乐于助人的： willing to do favors</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">He seemed oblivious to the fact that he had hurt her.   他似乎并不在意他伤害了她.  </t>
+          <t>an obliging concierge used his pull to get us reservations at the town's hottest restaurant  一 个 好 心 的看房人利用他的影响力帮我们在镇上最火爆的餐厅订到了座</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2684,19 +2666,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>obloquy</t>
+          <t>oblique</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>n. 谩骂，诽谤： abusively detractive language or utterance; calumny本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-n. 恶名，耻辱： the state of having lost the esteem of others</t>
+          <t>adj. 斜的： inclined or twisted to one side</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>she unleashed a torrent of obloquy on her opponent  她滔滔不绝地辱骂了对手一顿
-the accused murderer was condemned to live out his days in perpetual obloquy  凶 手 终 将在 骂 名中 度过余生</t>
+          <t>gave the eavesdropper an oblique glance  给了偷听者一个白眼</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2708,17 +2688,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>obscure</t>
+          <t>obliterate</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 含义模糊的： not clearly understood or expressed; having an often intentionally veiled oruncertain meaning</t>
+          <t>vt. 除去： to remove from existence</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>a fantasy writer who likes to put lots of obscure references in her tales of wizards and warlocks  一 个 喜欢在巫师故事中添加很多含义模糊的引用的魔幻小说作家</t>
+          <t>the March snowstorm obliterated our hopes for an early spring  三月的暴风雪摧毁了我们对于一个早春的念想</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2730,17 +2710,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>obsequious</t>
+          <t>oblivious</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>adj. 谄媚的，奴性的： marked by or exhibiting a fawning attentiveness</t>
+          <t>adj. 不知道的，不知情的： lacking conscious awareness; not informed about or aware of something</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>She's constantly followed by obsequious assistants who will do anything.   她总是有一群谄媚的跟班，原意为她赴汤蹈火。</t>
+          <t xml:space="preserve">He seemed oblivious to the fact that he had hurt her.   他似乎并不在意他伤害了她.  </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2752,19 +2732,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>obsess</t>
+          <t>obloquy</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vt. 迷住，使困扰： to haunt or excessively preoccupy the mind of</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>The war obsesses her—she talks about nothing else.   她被战争彻底迷住了，张口闭口都谈这个。</t>
-        </is>
-      </c>
+          <t>n. 谩骂，诽谤： abusively detractive language or utterance; calumny</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2774,17 +2750,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>obstinate</t>
+          <t>obscure</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adj. 固执的： perversely adhering to an opinion, purpose, or course in spite of reason, arguments, orpersuasion</t>
+          <t>adj. 含义模糊的： not clearly understood or expressed; having an often intentionally veiled oruncertain meaning</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>obstinate resistance to change  坚决抵制改变</t>
+          <t>a fantasy writer who likes to put lots of obscure references in her tales of wizards and warlocks  一 个 喜欢在巫师故事中添加很多含义模糊的引用的魔幻小说作家</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2796,179 +2772,171 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>obsequious</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>adj. 谄媚的，奴性的： marked by or exhibiting a fawning attentiveness</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>She's constantly followed by obsequious assistants who will do anything.   她总是有一群谄媚的跟班，原意为她赴汤蹈火。</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>obsess</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>vt. 迷住，使困扰： to haunt or excessively preoccupy the mind of</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>The war obsesses her—she talks about nothing else.   她被战争彻底迷住了，张口闭口都谈这个。</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>obstinate</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>adj. 固执的： perversely adhering to an opinion, purpose, or course in spite of reason, arguments, orpersuasion</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>obstinate resistance to change  坚决抵制改变</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>obstreperous</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>adj. 难驾驭的，任性的： stubbornly resistant to control; unruly; given to resisting authority or another'scontrol
 adj. 吵闹的： engaging in or marked by loud and insistent cries especially of protest</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>the club's president was at his wits' end with obstreperous members who refused to cooperate  俱 乐 部主席拿那些不合作的会员一点办法都没有
 an obstreperous crowd protesting the government's immigration policy  一堆吵闹的民众游行抗议政府的移民政策</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>obstruct</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>vt. 妨碍，制造困难： to impede, retard, or interfere with; hinder; to create difficulty for the work oractivity of
 vt. 阻挡： to prevent passage through by filling with something</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>He was charged with obstructing justice by lying to investigators.  他被指控向检察官说谎，妨碍司法。
 an unobstructed view  无阻碍的视野</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>obtuse</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>adj. 愚钝的： not having or showing an ability to absorb ideas readily</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Are you being deliberately obtuse? 你是故意装笨吗?</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>obviate</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>vt. 排除，使不必要： to anticipate and prevent (as a situation) or make unnecessary (as an action)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>The new treatment obviates the need for surgery.   新的疗法使手术不再是必须的。</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>occult</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>adj. 难以理解的： not easily apprehended or understood : abstruse, mysterious
 v. 使隐藏或神秘： to keep secret or shut off from view</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>an occult reference in the text that has puzzled scholars  文章中一处晦涩的难倒了学者们的引注
 occulted their house from prying eyes by planting large trees around it  在住所周围种满大树防止别人偷窥 || the actor's private life had long been occulted by a contrived public persona  演员的私人生活被一个精心打造的公众形象所遮掩</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>odium</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>n. 憎恶，讨厌： strong dislike, contempt, or aversion</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>time did nothing to diminish the odium in which the traitor lived out his days  时间也没有减少大家对这个叛徒的唾弃</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>offbeat</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>adj. 不平常的： noticeably different from what is generally found or experienced</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>this writer has an enjoyably offbeat sense of humor  这个作者笑点很奇特</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>offhand</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>adj. 即兴的，没有准备的： without premeditation or preparation</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>couldn't give the figures offhand</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2978,17 +2946,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>officious</t>
+          <t>odium</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 多管闲事的： thrusting oneself where one is not welcome or invited</t>
+          <t>n. 憎恶，讨厌： strong dislike, contempt, or aversion</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>an officious little man who was always telling everyone else how to do their jobs  一个多管闲事的人，总喜欢对他人的事情指手画脚</t>
+          <t>time did nothing to diminish the odium in which the traitor lived out his days  时间也没有减少大家对这个叛徒的唾弃</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3000,17 +2968,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>offish</t>
+          <t>offbeat</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 冷淡的： Inclined to be distant and reserved; aloof</t>
+          <t>adj. 不平常的： noticeably different from what is generally found or experienced</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>consistently surly and offish with the would-be suitors who came calling  对于追求者总是阴沉并且冷淡</t>
+          <t>this writer has an enjoyably offbeat sense of humor  这个作者笑点很奇特</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3022,17 +2990,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ominous</t>
+          <t>offhand</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 凶兆的： of or being an omen, especially an evil one</t>
+          <t>adj. 即兴的，没有准备的： without premeditation or preparation</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>an ominous threat of war  战争来临的凶兆</t>
+          <t>couldn't give the figures offhand</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3044,17 +3012,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>omniscient</t>
+          <t>officious</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 无所不知的： possessed of universal or complete knowledge</t>
+          <t>adj. 多管闲事的： thrusting oneself where one is not welcome or invited</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>an omniscient deity  无所不知的神</t>
+          <t>an officious little man who was always telling everyone else how to do their jobs  一个多管闲事的人，总喜欢对他人的事情指手画脚</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3066,17 +3034,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>onerous</t>
+          <t>offish</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 费时间花心思的： requiring much time, effort, or careful attention</t>
+          <t>adj. 冷淡的： Inclined to be distant and reserved; aloof</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>building the scale model of the frigate was an onerous task  建造军舰的小模型非常花时间</t>
+          <t>consistently surly and offish with the would-be suitors who came calling  对于追求者总是阴沉并且冷淡</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3088,259 +3056,259 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>ominous</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>adj. 凶兆的： of or being an omen, especially an evil one</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>an ominous threat of war  战争来临的凶兆</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>omniscient</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>adj. 无所不知的： possessed of universal or complete knowledge</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>an omniscient deity  无所不知的神</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>onerous</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>adj. 费时间花心思的： requiring much time, effort, or careful attention</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>building the scale model of the frigate was an onerous task  建造军舰的小模型非常花时间</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>opaque</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>adj. 不透光的：impenetrable by light; neither transparent nor translucent
 adj. 晦涩的：so obscure as to be unintelligible</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>opaque prose  晦涩的诗歌</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>opine</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>vt. 表达观点： to express opinions</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>You can opine about any subject you like.   你可以畅所欲言。</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>opportune</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>adj. 合适的，适当的： suitable or convenient for a particular occurrence</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>an opportune moment  方便的时机</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>opprobrious</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>adj. 辱骂的: expressing contemptuous reproach; scornful or abusive
 adj. 臭名昭著的，令人鄙视的: bringing disgrace; shameful or infamous</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>opprobrious language  脏话
 opprobrious conduct  令人鄙视的行为</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>oration</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. （颇有野心、自高自大的）演说： a speech delivered in a high-flown or pompous manner</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>orient</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>vt. 确定方向，使熟悉或适应： to set or arrange in any determinate position especially in relation tothe points of the compass; to make familiar with or adjusted to facts, principles, or a situation</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>orient students toward a career in medicine  指导学生从事医学的职业道路</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>original</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>adj. 创新的： independent and creative in thought or action :inventive
 adj. 最初的，最早的： coming before all others in time or order</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>The car has a highly original design.   这车的设计很新颖
 the original plan had to be discarded when the situation changed drastically  当环境发生剧烈变化时，最初的计划就该被放弃</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>orthodox</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>adj. 传统的： following or agreeing with established form, custom, or rules</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>He believes in the benefits of both orthodox medicine and alternative medicine.  他 既 相 信传 统 药物 又相信替代药物的效用。</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>oscillate</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vi. 振动，摇晃： to swing backward and forward like a pendulum
 v. 犹豫，变化： vary between opposing beliefs, feelings, or theories</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>ossify</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>vi. 硬化，僵化： to become hardened or conventional and opposed to change</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>a disease that ossifies the joints  一种会使关节僵化的疾病</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ostentatious</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>adj. 炫耀卖弄的： marked by or fond of conspicuous or vainglorious and sometimes pretentiousdisplay</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>wears an ostentatious diamond ring on her finger  她手指上戴着一枚巨大的钻戒</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ostracize</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>vt. 驱逐： to exclude from a group</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He was ostracized from the scientific community for many years because of his radical political beliefs.  </t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3350,87 +3318,87 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>ossify</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>vi. 硬化，僵化： to become hardened or conventional and opposed to change</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>a disease that ossifies the joints  一种会使关节僵化的疾病</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ostentatious</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>adj. 炫耀卖弄的： marked by or fond of conspicuous or vainglorious and sometimes pretentiousdisplay</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>wears an ostentatious diamond ring on her finger  她手指上戴着一枚巨大的钻戒</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ostracize</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vt. 驱逐： to exclude from a group</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He was ostracized from the scientific community for many years because of his radical political beliefs.  </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>oust</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>vt. 免职： to remove from a position of prominence or power (as a throne)
 v. 驱逐： to drive or force out</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>be ousted from power  被赶下台
 she was ousted from her job after it was proven she'd been pilfering company supplies  她 贪 污 公 司 财 物这事被证实后，她被驱逐了</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>outgoing</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>adj. 友好的，外向的： openly friendly and responsive: extroverted</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>a salesman whose aggressively outgoing personality could sometimes be overbearing  一 个 销 售 员 如 果过于热情会让人不能忍</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>outlandish</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>adj. 古怪的，奇异的：strikingly out of the ordinary: bizarre</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>an outlandish costume  奇装异服</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>outmaneuver</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>vt. 以策略取胜： to overcome (an opponent) by artful, clever maneuvering</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>outmaneuvered his congressional opponent  以计谋战胜了国会的对手</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3440,17 +3408,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>outset</t>
+          <t>outgoing</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 开端，开始： beginning, start</t>
+          <t>adj. 友好的，外向的： openly friendly and responsive: extroverted</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>I wish you'd mentioned this problem at the outset.   我希望你开门见山就提到这个问题。</t>
+          <t>a salesman whose aggressively outgoing personality could sometimes be overbearing  一 个 销 售 员 如 果过于热情会让人不能忍</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3462,17 +3430,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>outwit</t>
+          <t>outlandish</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>v. 瞒骗，以智取胜： to surpass in cleverness or cunning; outsmart</t>
+          <t>adj. 古怪的，奇异的：strikingly out of the ordinary: bizarre</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>a plan to outwit their opponents at their own game  在擅长的领域智取对手的计划</t>
+          <t>an outlandish costume  奇装异服</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3484,19 +3452,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>overbearing</t>
+          <t>outmaneuver</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>adj. 专横傲慢的： domineering in manner; arrogant
-adj. 压倒一切的，在力量或重要性上势不可挡的；支配的，显著的： overwhelming in power orsignificance; predominant, coming before all others in importance</t>
+          <t>vt. 以策略取胜： to overcome (an opponent) by artful, clever maneuvering</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Her husband's overbearing manner made her miserable.  她的丈夫专横傲慢，让她痛不欲生。
-the overbearing problem in our nation's schools  我国中小学教育的最突出的问题</t>
+          <t>outmaneuvered his congressional opponent  以计谋战胜了国会的对手</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3508,17 +3474,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>overlap</t>
+          <t>outset</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>vt. 重叠，重复： to occupy the same area in part</t>
+          <t>n. 开端，开始： beginning, start</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Baseball season overlaps football season in September.  棒球赛季和橄榄球赛季在九月有时间重合。</t>
+          <t>I wish you'd mentioned this problem at the outset.   我希望你开门见山就提到这个问题。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3530,17 +3496,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>overt</t>
+          <t>outwit</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 明显的，公开的： open and observable; not hidden, concealed, or secret</t>
+          <t>v. 瞒骗，以智取胜： to surpass in cleverness or cunning; outsmart</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>overt hostility  公然的敌意</t>
+          <t>a plan to outwit their opponents at their own game  在擅长的领域智取对手的计划</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3552,84 +3518,84 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>overbearing</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>adj. 专横傲慢的： domineering in manner; arrogant</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Her husband's overbearing manner made her miserable.  她的丈夫专横傲慢，让她痛不欲生。</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>vt. 重叠，重复： to occupy the same area in part</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Baseball season overlaps football season in September.  棒球赛季和橄榄球赛季在九月有时间重合。</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>overt</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>adj. 明显的，公开的： open and observable; not hidden, concealed, or secret</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>overt hostility  公然的敌意</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>overture</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 前言： an introductory section or part, as of a poem; a prelude
 n. 序曲： an instrumental composition intended especially as an introduction to an extended work,such as an opera or oratorio</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>the parade down Main Street served as the overture for a weekend of fun and festivities  主 干 道 上 的游行活动拉开了一周节日活动的序幕</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>oxymoron</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>n. 矛盾修饰法： a combination of contradictory or incongruous words</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>The phrase “cruel kindness” is an oxymoron.   “残酷的仁慈”就是矛盾修饰法的一个例子。|| The phrase“Broadway rock musical” is an oxymoron.   Broadway doesn't have the nerve to let the really hard stuff in the house.  “百老汇的摇滚音乐剧”是个反讽。百老汇才不会允许吵吵闹闹的东西在里面演出。</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>pacify</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>vt. 使平静，安慰： to ease the anger or agitation of</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>pacify a crying child  安抚一个哭泣的孩子</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>padding</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>n. 夸张，废话： the representation of something in terms that go beyond the facts</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>that feature writer is sometimes guilty of padding, but he keeps it from getting out of hand  这 作 者 有 时候夸夸其谈，但是保持了适度</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3641,17 +3607,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>painstaking</t>
+          <t>oxymoron</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>adj. 煞费苦心的： taking pains: expending, showing, or involving diligent care and effort</t>
+          <t>n. 矛盾修饰法： a combination of contradictory or incongruous words</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>It took months of painstaking research to write the book.  这本书的写作耗费了几个月的苦心研究。</t>
+          <t>The phrase “cruel kindness” is an oxymoron.   “残酷的仁慈”就是矛盾修饰法的一个例子。|| The phrase“Broadway rock musical” is an oxymoron.   Broadway doesn't have the nerve to let the really hard stuff in the house.  “百老汇的摇滚音乐剧”是个反讽。百老汇才不会允许吵吵闹闹的东西在里面演出。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3663,17 +3629,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>palatable</t>
+          <t>pacify</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>adj. 感到愉悦满足的： giving pleasure or contentment to the mind or senses</t>
+          <t>vt. 使平静，安慰： to ease the anger or agitation of</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>I always associate the palatable aroma of roasting turkey with Thanksgiving.   我总是把香喷喷的烤火鸡的味道和感恩节联系起来</t>
+          <t>pacify a crying child  安抚一个哭泣的孩子</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3685,17 +3651,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>palatial</t>
+          <t>padding</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 宫殿般奢华的： of the nature of a palace, as in spaciousness or ornateness</t>
+          <t>n. 夸张，废话： the representation of something in terms that go beyond the facts</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>a palatial penthouse apartment  一套豪华的顶层公寓</t>
+          <t>that feature writer is sometimes guilty of padding, but he keeps it from getting out of hand  这 作 者 有 时候夸夸其谈，但是保持了适度</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3707,17 +3673,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>pall</t>
+          <t>paean</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vi. 失去兴趣： to lose in interest or attraction</t>
+          <t>n. 欢乐颂： a joyous song or hymn of praise, tribute, thanksgiving, or triumph</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>His humor began to pall on us.   他的幽默开始使我们生腻了。</t>
+          <t>her retirement party featured many paeans for her long years of service to the company  她 的 退 休 派对满是对她多年在公司辛勤工作的赞颂</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3729,17 +3695,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>palliate</t>
+          <t>painstaking</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>v. 平息，减轻： to make less severe or intense; mitigate</t>
+          <t>adj. 煞费苦心的： taking pains: expending, showing, or involving diligent care and effort</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>palliative drug  缓解剂</t>
+          <t>It took months of painstaking research to write the book.  这本书的写作耗费了几个月的苦心研究。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3751,90 +3717,156 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>palatable</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>adj. 感到愉悦满足的： giving pleasure or contentment to the mind or senses</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>I always associate the palatable aroma of roasting turkey with Thanksgiving.   我总是把香喷喷的烤火鸡的味道和感恩节联系起来</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>palatial</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>adj. 宫殿般奢华的： of the nature of a palace, as in spaciousness or ornateness</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>a palatial penthouse apartment  一套豪华的顶层公寓</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>pall</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>vi. 失去兴趣： to lose in interest or attraction</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>His humor began to pall on us.   他的幽默开始使我们生腻了。</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>palliate</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>v. 平息，减轻： to make less severe or intense; mitigate</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>palliative drug  缓解剂</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>pallid</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>adj. 无生气的，缺乏活力的： lacking in radiance or vitality; dull
 adj. 苍白无血色的： having an abnormally pale or wan complexion</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>The movie is a pallid version of the classic novel.   这部经典小说改编的电影很苍白无力。
 a pallid girl who looked as though she'd never seen the sun  一个面色苍白的姑娘，仿佛从来没有晒过太阳</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>palmy</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>adj. 繁荣的： marked by prosperity</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>the palmy days of the British drama  英国戏剧的繁荣时期</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>palpable</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 摸得到的： capable of being touched or felt
 adj. 明显的，易觉察的： easily perceived; obvious</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>a small but palpable lump in my neck  我脖子上有一块小但是能摸得到的肿块
 a palpable difference  易觉察的差别</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>palter</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>vi. 欺骗： to act insincerely or deceitfully</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>unwilling to palter over the price of the house  拒绝对房子漫天要价</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_3.xlsx
+++ b/result/生词本导入模版_3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,43 +422,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mischievous</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>adj. 调皮的，调皮的： playful in a naughty or teasing way
+adj. 有害的： causing harm or trouble</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>The mischievous child broke the vase.  调皮的孩子打碎了花瓶
+mischievous rumors that defame him  恶意中伤他的谣言</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mischievous</t>
+          <t>misconstrue</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 调皮的，调皮的： playful in a naughty or teasing way
-adj. 有害的： causing harm or trouble</t>
+          <t>vt. 误解，曲解： to mistake the meaning of</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The mischievous child broke the vase.  调皮的孩子打碎了花瓶
-mischievous rumors that defame him  恶意中伤他的谣言</t>
+          <t>An outsider might misconstrue the nature of the phenomenon.   局外者可能会曲解这个现象的本质</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>misconstrue</t>
+          <t>miscreant</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vt. 误解，曲解： to mistake the meaning of</t>
+          <t>n. 恶棍，罪犯： one who behaves criminally or viciously</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>An outsider might misconstrue the nature of the phenomenon.   局外者可能会曲解这个现象的本质</t>
+          <t>robbed by a bunch of miscreants  遭到了一伙歹徒的抢劫</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,17 +492,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>miscreant</t>
+          <t>misdemeanor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 恶棍，罪犯： one who behaves criminally or viciously</t>
+          <t>n. 轻罪： a crime less serious than a felony</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>robbed by a bunch of miscreants  遭到了一伙歹徒的抢劫</t>
+          <t>charged with several misdemeanors  被指控几项轻罪</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,17 +514,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>misdemeanor</t>
+          <t>miserly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n. 轻罪： a crime less serious than a felony</t>
+          <t>adj. 吝啬的： marked by grasping meanness and penuriousness</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>charged with several misdemeanors  被指控几项轻罪</t>
+          <t>a miserly couple devoid of social conscience and responsibility  一对没有社会良心和责任感的吝啬夫妻</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -548,17 +536,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>miserly</t>
+          <t>misfortune</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 吝啬的： marked by grasping meanness and penuriousness</t>
+          <t>n. 不幸： bad fortune or ill luck</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a miserly couple devoid of social conscience and responsibility  一对没有社会良心和责任感的吝啬夫妻</t>
+          <t>unable to grasp why he had been struck by such a misfortune  无法理解他为何会遇上如此不幸之事</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>misfortune</t>
+          <t>misgiving</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 不幸： bad fortune or ill luck</t>
+          <t>n. 担忧，疑虑： a feeling of doubt or suspicion especially concerning a future event</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>unable to grasp why he had been struck by such a misfortune  无法理解他为何会遇上如此不幸之事</t>
+          <t>No one can dispel his misgiving.   没有人能打消他的疑虑</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -592,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>misgiving</t>
+          <t>mishap</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 担忧，疑虑： a feeling of doubt or suspicion especially concerning a future event</t>
+          <t>n. 不幸之事： an unfortunate accident</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No one can dispel his misgiving.   没有人能打消他的疑虑</t>
+          <t>Mishap followed wherever he went.   不论他走到哪里，厄运总是形影相随</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,17 +602,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mishap</t>
+          <t>misrepresent</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 不幸之事： an unfortunate accident</t>
+          <t>vt. 误传，篡改： to give an incorrect or misleading representation of</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mishap followed wherever he went.   不论他走到哪里，厄运总是形影相随</t>
+          <t>misrepresent the facts  篡改事实真相</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -636,17 +624,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>misrepresent</t>
+          <t>mite</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vt. 误传，篡改： to give an incorrect or misleading representation of</t>
+          <t>n. 微小的东西，很少的钱： a very small object, creature, or particle, a very small sum of money</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>misrepresent the facts  篡改事实真相</t>
+          <t>I have only a mite left to buy lunch for the rest of the week.   我只剩下一点钱来买剩下一周几天的午饭了</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -658,17 +646,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mite</t>
+          <t>mitigate</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n. 微小的东西，很少的钱： a very small object, creature, or particle, a very small sum of money</t>
+          <t>vt. 减轻痛苦，使缓和： to make less severe or painful</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>I have only a mite left to buy lunch for the rest of the week.   我只剩下一点钱来买剩下一周几天的午饭了</t>
+          <t>powerful drugs that mitigate pains  强力的镇痛剂</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -680,17 +668,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mitigate</t>
+          <t>mobile</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vt. 减轻痛苦，使缓和： to make less severe or painful</t>
+          <t>adj. 可移动的： capable of moving or being moved
+adj. 可变的： changeable in appearance, mood, or purpose</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>powerful drugs that mitigate pains  强力的镇痛剂</t>
+          <t>a mobile missile launcher  可移动导弹发射装置
+a highly mobile face  善变的面孔</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -702,19 +692,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>mockery</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adj. 可移动的： capable of moving or being moved
-adj. 可变的： changeable in appearance, mood, or purpose</t>
+          <t>n. 鄙视，嘲弄： scornfully contemptuous ridicule
+n. 以嘲笑为目的的模仿： a false, derisive, or impudent imitation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a mobile missile launcher  可移动导弹发射装置
-a highly mobile face  善变的面孔</t>
+          <t>Her deliberate mockery triggered a fierce fight.  她的蓄意嘲弄引起了一场激烈的打斗
+arbitrary methods that make a mockery of justice  嘲讽司法公正的仲裁体系</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -726,19 +716,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mockery</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n. 鄙视，嘲弄： scornfully contemptuous ridicule
-n. 以嘲笑为目的的模仿： a false, derisive, or impudent imitation</t>
+          <t>vt. 使缓和： to lessen the intensity or extremeness of
+adj. 适度的，中庸的： being within reasonable limits; not excessive or extreme</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Her deliberate mockery triggered a fierce fight.  她的蓄意嘲弄引起了一场激烈的打斗
-arbitrary methods that make a mockery of justice  嘲讽司法公正的仲裁体系</t>
+          <t>Sopranos and tenors moderates their voices to fit the size of the theater.   女高音和男高音们根据剧场的大小调节他们的声音以创造合适的效果</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -750,18 +739,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>modicum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vt. 使缓和： to lessen the intensity or extremeness of
-adj. 适度的，中庸的： being within reasonable limits; not excessive or extreme</t>
+          <t>n. 少量： a small portion; a limited quantity</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sopranos and tenors moderates their voices to fit the size of the theater.   女高音和男高音们根据剧场的大小调节他们的声音以创造合适的效果</t>
+          <t>a modicum of food quota  极少量的食物配额</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -773,17 +761,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>modicum</t>
+          <t>mollify</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>n. 少量： a small portion; a limited quantity</t>
+          <t>vt. 平息抚慰，缓和： to calm in temper or feeling</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a modicum of food quota  极少量的食物配额</t>
+          <t>mollify the angry customer  平息消费者的怒气</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -795,17 +783,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mollify</t>
+          <t>mollycoddle</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vt. 平息抚慰，缓和： to calm in temper or feeling</t>
+          <t>vt. 溺爱： to treat with an excessive or absurd degree of indulgence and attention</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mollify the angry customer  平息消费者的怒气</t>
+          <t>mollycoddle his only grandson  溺爱他唯一的孙子</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -817,17 +805,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mollycoddle</t>
+          <t>molt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vt. 溺爱： to treat with an excessive or absurd degree of indulgence and attention</t>
+          <t>vi. 脱（羽、皮等）： to shed hair, feathers, shell, horns, or an outer layer periodically</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mollycoddle his only grandson  溺爱他唯一的孙子</t>
+          <t>Snakes molt as they grow, shedding the old skin and growing a larger new skin.   随着年龄的增长，蛇会脱去老皮，长出新皮</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -839,17 +827,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>molt</t>
+          <t>momentous</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vi. 脱（羽、皮等）： to shed hair, feathers, shell, horns, or an outer layer periodically</t>
+          <t>adj. 极重要的： of utmost importance; of outstanding significance or consequence</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Snakes molt as they grow, shedding the old skin and growing a larger new skin.   随着年龄的增长，蛇会脱去老皮，长出新皮</t>
+          <t>Battle of Stalingrad is a momentous campaign in World War 2.   斯大林格勒之战是第二次世界大战中具有重大意义的一次战役</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -861,17 +849,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>momentous</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 极重要的： of utmost importance; of outstanding significance or consequence</t>
+          <t>n. 动力： impetus of a physical object in motion</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Battle of Stalingrad is a momentous campaign in World War 2.   斯大林格勒之战是第二次世界大战中具有重大意义的一次战役</t>
+          <t>Their luck began to pick up momentum.   他们的运气开始转旺</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -883,17 +871,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>mongrel</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>n. 动力： impetus of a physical object in motion</t>
+          <t>adj. 杂种的，混血儿的： of mixed origin or character</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Their luck began to pick up momentum.   他们的运气开始转旺</t>
+          <t>homeless mongrel dogs on the streets  街上的流浪杂种狗</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -905,17 +893,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mongrel</t>
+          <t>monochromatic</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 杂种的，混血儿的： of mixed origin or character</t>
+          <t>adj. 单色的： having or consisting of one color or hue
+adj. 单调无聊的： lacking variety, creativity, or excitement</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>homeless mongrel dogs on the streets  街上的流浪杂种狗</t>
+          <t>monochromatic filter  单色滤光片
+a monochromatic article eulogizing a hero  一个无聊的赞颂英雄的文章</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -927,19 +917,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>monochromatic</t>
+          <t>monologue</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 单色的： having or consisting of one color or hue
-adj. 单调无聊的： lacking variety, creativity, or excitement</t>
+          <t>n. 独白：a dramatic sketch performed by one actor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>monochromatic filter  单色滤光片
-a monochromatic article eulogizing a hero  一个无聊的赞颂英雄的文章</t>
+          <t>deliver a tedious monologue  做了一个冗长的独白</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -951,17 +939,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>monologue</t>
+          <t>monotonous</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n. 独白：a dramatic sketch performed by one actor</t>
+          <t>adj. （声音）单调的： uttered or sounded in one unvarying tone
+adj. 清一色的，无聊的： tediously uniform or unvarying</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>deliver a tedious monologue  做了一个冗长的独白</t>
+          <t>a monotonous apathetic voice  单调而冷漠的声音
+a sparkle in the monotonous background  单调背景中的一个亮点</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -973,19 +963,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>monotonous</t>
+          <t>montage</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj. （声音）单调的： uttered or sounded in one unvarying tone
-adj. 清一色的，无聊的： tediously uniform or unvarying</t>
+          <t>n. 大杂烩： an unorganized collection or mixture of various things</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>a monotonous apathetic voice  单调而冷漠的声音
-a sparkle in the monotonous background  单调背景中的一个亮点</t>
+          <t>My memories of the childhood trip are a montage of the sights of two rivers, smells of hotpots, and soundsof light railway of Chongqing.   我孩提时代旅行的记忆就是由两江风光、火锅的香味以及重庆的轻轨声杂糅而成的</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -997,17 +985,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>montage</t>
+          <t>moratorium</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 大杂烩： an unorganized collection or mixture of various things</t>
+          <t>n. 延期，暂缓施行： a suspension of activity</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>My memories of the childhood trip are a montage of the sights of two rivers, smells of hotpots, and soundsof light railway of Chongqing.   我孩提时代旅行的记忆就是由两江风光、火锅的香味以及重庆的轻轨声杂糅而成的</t>
+          <t>a moratorium on nuclear tests  暂缓核试验</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1019,17 +1007,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>moratorium</t>
+          <t>morbid</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>n. 延期，暂缓施行： a suspension of activity</t>
+          <t>adj. 病态的： affected with or induced by disease
+adj. 思想性格变态的： characterized by preoccupation with unwholesome thoughts or feelings</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a moratorium on nuclear tests  暂缓核试验</t>
+          <t>exhibit a morbid fascination  展现出一种病态的迷恋
+read the account of the murder with a morbid interest  怀着病态的心态读谋杀报告</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1041,19 +1031,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>morbid</t>
+          <t>mordant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>adj. 病态的： affected with or induced by disease
-adj. 思想性格变态的： characterized by preoccupation with unwholesome thoughts or feelings</t>
+          <t>adj. 尖酸刻薄的： biting and caustic in thought, manner, or style</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>exhibit a morbid fascination  展现出一种病态的迷恋
-read the account of the murder with a morbid interest  怀着病态的心态读谋杀报告</t>
+          <t>feel embarrassed about the mordant satire of the critics  对评论家刻薄的讽刺感到尴尬</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1065,17 +1053,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mordant</t>
+          <t>moribund</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 尖酸刻薄的： biting and caustic in thought, manner, or style</t>
+          <t>adj. 即将结束的，垂死的： approaching death; about to die
+adj. 即将过时的： on the verge of becoming obsolete</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>feel embarrassed about the mordant satire of the critics  对评论家刻薄的讽刺感到尴尬</t>
+          <t>The nation’s banking industry was moribund.   这个国家的银行业危在旦夕
+Some social conventions have been rendered moribund in face of modernization.   不少传统习俗在现代化的影响下变得岌岌可危</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1087,21 +1077,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>moribund</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>adj. 即将结束的，垂死的： approaching death; about to die
-adj. 即将过时的： on the verge of becoming obsolete</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>The nation’s banking industry was moribund.   这个国家的银行业危在旦夕
-Some social conventions have been rendered moribund in face of modernization.   不少传统习俗在现代化的影响下变得岌岌可危</t>
-        </is>
-      </c>
+          <t>morose</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1111,11 +1091,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>morose</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t>mosaic</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>n. 综合物，马赛克般的东西： an unorganized collection or mixture of various things</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>a mosaic of testimony from various witnesses  从不同证人中得来的综合证词</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1125,17 +1113,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mosaic</t>
+          <t>mosque</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 综合物，马赛克般的东西： an unorganized collection or mixture of various things</t>
+          <t>n. 清真寺： a building used for public worship by Muslim</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a mosaic of testimony from various witnesses  从不同证人中得来的综合证词</t>
+          <t>a deadly suicide attack at the mosque  在清真寺发生的致命自杀性袭击</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1147,17 +1135,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mosque</t>
+          <t>motile</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>n. 清真寺： a building used for public worship by Muslim</t>
+          <t>adj. 能动的：exhibiting or capable of movement</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>a deadly suicide attack at the mosque  在清真寺发生的致命自杀性袭击</t>
+          <t>Aircraft carriers are recognized as a motile combat platform.   航空母舰是一种移动作战平台</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1169,17 +1157,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>motile</t>
+          <t>motivate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>adj. 能动的：exhibiting or capable of movement</t>
+          <t>vt. 刺激，激发： to provide with an incentive; move to action</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft carriers are recognized as a motile combat platform.   航空母舰是一种移动作战平台</t>
+          <t>questions that excite and motivate youth  激发青年人的问题</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1191,17 +1179,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>motivate</t>
+          <t>motley</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vt. 刺激，激发： to provide with an incentive; move to action</t>
+          <t>adj. 混杂的，富于变化的： (especially of colors) having elements of great variety or incongruity</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>questions that excite and motivate youth  激发青年人的问题</t>
+          <t>an arrangement of motley flowers  多种不同花束的组合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1213,17 +1201,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>motley</t>
+          <t>mottle</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>adj. 混杂的，富于变化的： (especially of colors) having elements of great variety or incongruity</t>
+          <t>vt. 标记上杂色斑点： to mark with spots or blotches of different shades or colors</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>an arrangement of motley flowers  多种不同花束的组合</t>
+          <t>a black horse mottled with white  身上带有白色斑点的黑马</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1235,17 +1223,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mottle</t>
+          <t>motto</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>vt. 标记上杂色斑点： to mark with spots or blotches of different shades or colors</t>
+          <t>n. 座右铭： a short expression of a guiding principle</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>a black horse mottled with white  身上带有白色斑点的黑马</t>
+          <t>“Semper fidelis” is the motto of US Marine Corps.   “永远忠诚”是美国海军陆战队的格言</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1257,17 +1245,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>motto</t>
+          <t>mournful</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n. 座右铭： a short expression of a guiding principle</t>
+          <t>adj. 悲伤的： feeling or expressing sorrow or grief</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>“Semper fidelis” is the motto of US Marine Corps.   “永远忠诚”是美国海军陆战队的格言</t>
+          <t>The mournful survivors of the disaster were faced with the grim task of burying the dead.  悲 伤 的 幸 存者面临着掩埋灾难中死者尸体的可怕任务
+Mrs.   Murphy fainted at the mournful news of her son’s death.   Murphy  太太听到她儿子的死讯后晕了过去</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1279,18 +1268,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mournful</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>adj. 悲伤的： feeling or expressing sorrow or grief</t>
+          <t>n. 运动： the act or process of moving</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The mournful survivors of the disaster were faced with the grim task of burying the dead.  悲 伤 的 幸 存者面临着掩埋灾难中死者尸体的可怕任务
-Mrs.   Murphy fainted at the mournful news of her son’s death.   Murphy  太太听到她儿子的死讯后晕了过去</t>
+          <t>There appears to be some movement in the bush.   树丛中似乎有动静</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1302,45 +1290,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>muddy</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>n. 运动： the act or process of moving</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>There appears to be some movement in the bush.   树丛中似乎有动静</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>muddy</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 不干净的： not clean
 adj. 浑浊的，不清晰的： lacking in clarity or brightness
 v. 使难以理解： to make (something) unclear to the understanding</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>got muddy after playing outside  在外面玩弄得很脏
 a muddy recording  嘈杂不清的纪录
 That point is irrelevant and will just muddy the issue we're trying to resolve.  那个观点和讨论我们的问题毫不相干，它只会妨碍我们对于问题的理解</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>muffle</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>vt. 使消声： to wrap or pad in order to deaden the sound</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>close the window to muffle the outside noises  关上窗户以减少外界的噪音</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1350,17 +1338,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>muffle</t>
+          <t>mulish</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vt. 使消声： to wrap or pad in order to deaden the sound</t>
+          <t>adj. 固执的： unreasonably and inflexibly obstinate</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>close the window to muffle the outside noises  关上窗户以减少外界的噪音</t>
+          <t>a mulish determination to act on his own  铁了心要单打独斗</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1372,17 +1360,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mulish</t>
+          <t>mumble</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj. 固执的： unreasonably and inflexibly obstinate</t>
+          <t>v. 说话含糊： to utter words in a low confused indistinct manner</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>a mulish determination to act on his own  铁了心要单打独斗</t>
+          <t>He mumbled an apology reluctantly.   他不情愿地咕哝了句抱歉</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1394,17 +1382,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mumble</t>
+          <t>mundane</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>v. 说话含糊： to utter words in a low confused indistinct manner</t>
+          <t>adj. 尘世的，世俗化的： of, relating to, or typical of this world
+adj. 平凡的： relating to, characteristic of, or concerned with commonplaces</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>He mumbled an apology reluctantly.   他不情愿地咕哝了句抱歉</t>
+          <t>As for opera, I prefer mundane to religious themes.  与宗教主题相比，我更喜欢世俗主题的歌剧
+mundane concerns of day-to-day life  关于日常生活的一般顾虑</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1416,19 +1406,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mundane</t>
+          <t>munificent</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adj. 尘世的，世俗化的： of, relating to, or typical of this world
-adj. 平凡的： relating to, characteristic of, or concerned with commonplaces</t>
+          <t>adj. 慷慨的： very liberal in giving</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>As for opera, I prefer mundane to religious themes.  与宗教主题相比，我更喜欢世俗主题的歌剧
-mundane concerns of day-to-day life  关于日常生活的一般顾虑</t>
+          <t>The university received a munificent foundation grant.   大学收到了一笔慷慨的基金资助</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1440,17 +1428,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>munificent</t>
+          <t>murky</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 慷慨的： very liberal in giving</t>
+          <t>adj. 黯淡的，昏暗的： being without light or without much light
+adj. 模糊的，晦涩的： lacking clarity or distinctness</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The university received a munificent foundation grant.   大学收到了一笔慷慨的基金资助</t>
+          <t>I didn't like walking around the murky campground without a flashlight.  我不喜欢在没有手电的情况下在营地里走动
+He felt lost in the murky bureaucratic rhetoric.   他感觉自己被官僚主义的晦涩说辞弄晕了</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1462,19 +1452,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>murky</t>
+          <t>murmur</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 黯淡的，昏暗的： being without light or without much light
-adj. 模糊的，晦涩的： lacking clarity or distinctness</t>
+          <t>n. 小声的话语： a low, indistinct, continuous sound
+v. 低声抱怨，发牢骚： to complain in low mumbling tones; grumble</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>I didn't like walking around the murky campground without a flashlight.  我不喜欢在没有手电的情况下在营地里走动
-He felt lost in the murky bureaucratic rhetoric.   他感觉自己被官僚主义的晦涩说辞弄晕了</t>
+          <t>We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语
+We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1486,19 +1476,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>murmur</t>
+          <t>mutate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>n. 小声的话语： a low, indistinct, continuous sound
-v. 低声抱怨，发牢骚： to complain in low mumbling tones; grumble</t>
+          <t>v. （使）改变，（使）变异： to undergo or cause to undergo mutation</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语
-We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语</t>
+          <t>Some chromosomes started to mutate after exposure to X-Ray.   经 X  光照射之后部分染色体发生了变异</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1510,44 +1498,44 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mutate</t>
+          <t>mute</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>v. （使）改变，（使）变异： to undergo or cause to undergo mutation</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Some chromosomes started to mutate after exposure to X-Ray.   经 X  光照射之后部分染色体发生了变异</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mute</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 不说话的，缄默的： deliberately refraining from speech
 vt. 使颜色、音调等柔和： to soften the tone, color, shade, or hue of
 vt. 减弱声音： to soften or muffle the sound of</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>He always remained mute no matter how much we pleaded for an answer  不论我们怎么恳求回答，他总是保持沉默
 mute a color  对颜色进行柔化</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mutter</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>vi. 低声抱怨： to murmur complainingly or angrily</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>mutter about the difficult assignment  抱怨作业太难</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1557,17 +1545,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mutter</t>
+          <t>myopic</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vi. 低声抱怨： to murmur complainingly or angrily</t>
+          <t>adj. 缺乏远见的，缺乏辨别能力的： a lack of foresight or discernment</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>mutter about the difficult assignment  抱怨作业太难</t>
+          <t>a myopic view on climate change  关于气候变化缺乏远见的观点</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1579,17 +1567,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>myopic</t>
+          <t>myriad</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 缺乏远见的，缺乏辨别能力的： a lack of foresight or discernment</t>
+          <t>adj. 无限的，大量的： constituting a very large, indefinite number</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>a myopic view on climate change  关于气候变化缺乏远见的观点</t>
+          <t>the myriad stars of a summer night  夏日夜空中的无尽繁星</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1601,17 +1589,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>myriad</t>
+          <t>nadir</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 无限的，大量的： constituting a very large, indefinite number</t>
+          <t>n. 最低点： the lowest point</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>the myriad stars of a summer night  夏日夜空中的无尽繁星</t>
+          <t>the nadir on the curve  曲线上的最低点</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1623,17 +1611,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>nadir</t>
+          <t>naïve</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>n. 最低点： the lowest point</t>
+          <t>adj. 天真纯朴的： lacking worldly experience and understanding, simple and guileless</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>the nadir on the curve  曲线上的最低点</t>
+          <t>a child with a naïve charm  天真无邪的孩子</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1645,17 +1633,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>naïve</t>
+          <t>narcissism</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adj. 天真纯朴的： lacking worldly experience and understanding, simple and guileless</t>
+          <t>n. 自恋： excessive love or admiration of oneself</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>a child with a naïve charm  天真无邪的孩子</t>
+          <t>In his narcissism, he just assumed that everyone else wanted to hear the tiny details of his day.   在 他 自恋的眼中，所有人仿佛都想要听他日常生活里的细枝末节</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1667,17 +1655,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>narcissism</t>
+          <t>nascent</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>n. 自恋： excessive love or admiration of oneself</t>
+          <t>adj. 新生的： coming or having recently come into existence</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>In his narcissism, he just assumed that everyone else wanted to hear the tiny details of his day.   在 他 自恋的眼中，所有人仿佛都想要听他日常生活里的细枝末节</t>
+          <t>The rise of the nascent middle class catalyzed a new economic boom.  新生中产阶级的崛起催生了一场新的经济繁荣</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1689,17 +1677,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>nascent</t>
+          <t>natty</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 新生的： coming or having recently come into existence</t>
+          <t>adj. 整洁的，时髦的： trimly neat and tidy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>The rise of the nascent middle class catalyzed a new economic boom.  新生中产阶级的崛起催生了一场新的经济繁荣</t>
+          <t>a natty young woman  整洁漂亮的年轻女子</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1711,17 +1699,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>natty</t>
+          <t>nauseate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 整洁的，时髦的： trimly neat and tidy</t>
+          <t>v. （使）厌恶，（使）作呕： to feel or cause to feel loathing or disgust</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>a natty young woman  整洁漂亮的年轻女子</t>
+          <t>The malodor of the rotten meat made us nauseate.  腐肉的恶臭让我们恶心</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1733,17 +1721,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nauseate</t>
+          <t>nautical</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>v. （使）厌恶，（使）作呕： to feel or cause to feel loathing or disgust</t>
+          <t>adj. 航海的： of, relating to, or characteristic of ships, shipping, sailors, or navigation on a body ofwater</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>The malodor of the rotten meat made us nauseate.  腐肉的恶臭让我们恶心</t>
+          <t>nautical mile  海里</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1755,19 +1743,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nautical</t>
+          <t>naysay</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>adj. 航海的： of, relating to, or characteristic of ships, shipping, sailors, or navigation on a body ofwater</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>nautical mile  海里</t>
-        </is>
-      </c>
+          <t>vt. 拒绝，否认： to oppose, deny, or take a pessimistic or negative view of</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1777,15 +1761,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>naysay</t>
+          <t>nebulous</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>vt. 拒绝，否认： to oppose, deny, or take a pessimistic or negative view of</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>adj. 模糊的： indistinct, vague</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a nebulous description of the topic  对于主题的模糊描述</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1795,17 +1783,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>nebulous</t>
+          <t>needy</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 模糊的： indistinct, vague</t>
+          <t>adj. 贫困的：being in need; impoverished, poor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a nebulous description of the topic  对于主题的模糊描述</t>
+          <t>As a child, she was extremely needy and had no self-confidence.   她是一个非常贫穷的小孩，因此缺乏自信</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1817,17 +1805,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>needy</t>
+          <t>nefarious</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 贫困的：being in need; impoverished, poor</t>
+          <t>adj. 极坏的，邪恶的： flagrantly wicked or impious</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>As a child, she was extremely needy and had no self-confidence.   她是一个非常贫穷的小孩，因此缺乏自信</t>
+          <t>a nefarious scheme to assassinate the archbishop  企图刺杀大主教的邪恶阴谋</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1839,17 +1827,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nefarious</t>
+          <t>negation</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 极坏的，邪恶的： flagrantly wicked or impious</t>
+          <t>n. 否定： the opposite or absence of something regarded as actual, positive, or affirmative</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>a nefarious scheme to assassinate the archbishop  企图刺杀大主教的邪恶阴谋</t>
+          <t>issued specific negations of all of the charges against her  发表了明确的声明，否定了所有对她的指控</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1861,17 +1849,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>negation</t>
+          <t>negligent</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n. 否定： the opposite or absence of something regarded as actual, positive, or affirmative</t>
+          <t>adj. 疏忽大意的： failing to give proper attention or care</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>issued specific negations of all of the charges against her  发表了明确的声明，否定了所有对她的指控</t>
+          <t>negligent in taking care of the children  粗心大意地照顾孩子</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1883,17 +1871,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>negligent</t>
+          <t>negotiate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>adj. 疏忽大意的： failing to give proper attention or care</t>
+          <t>vi. 商量，谈判： to arrange or settle by discussion and mutual agreement
+vi. 谋划： plan out usually with subtle skill or care</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>negligent in taking care of the children  粗心大意地照顾孩子</t>
+          <t>negotiate the term of truce  共商停战事宜
+The prisoners negotiated their escape by using Morse code to tap messages to each other through thewalls.  犯人们通过敲击墙壁来传达莫尔斯电码，从而密谋了他们的逃跑计划</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1905,19 +1895,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>negotiate</t>
+          <t>neophyte</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vi. 商量，谈判： to arrange or settle by discussion and mutual agreement
-vi. 谋划： plan out usually with subtle skill or care</t>
+          <t>n. 初学者，新手： a beginner or novice</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>negotiate the term of truce  共商停战事宜
-The prisoners negotiated their escape by using Morse code to tap messages to each other through thewalls.  犯人们通过敲击墙壁来传达莫尔斯电码，从而密谋了他们的逃跑计划</t>
+          <t>a novice in the theater who had never even had a walk-on role  一个连龙套都没跑过的新演员</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1929,19 +1917,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>neophyte</t>
+          <t>nerve</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n. 初学者，新手： a beginner or novice</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>a novice in the theater who had never even had a walk-on role  一个连龙套都没跑过的新演员</t>
-        </is>
-      </c>
+          <t>n. （坚强的）意志，勇气： power of endurance or control; strength of mind to carry on in spite ofdanger</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1951,15 +1935,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>nerve</t>
+          <t>nettle</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>n. （坚强的）意志，勇气： power of endurance or control; strength of mind to carry on in spite ofdanger</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>vt. 惹怒： to arouse to sharp but transitory annoyance or anger</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>His pompous attitude nettled several people.   他自大的性格得罪了不少人</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1969,17 +1957,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nettle</t>
+          <t>neutralize</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>vt. 惹怒： to arouse to sharp but transitory annoyance or anger</t>
+          <t>vt. 中和： to cause (an acid or base) to undergo neutralization
+vt. 破坏，使无效： to make inoperative or ineffective usually by means of an opposite force, influence,or effect</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>His pompous attitude nettled several people.   他自大的性格得罪了不少人</t>
+          <t>industrial exhaust neutralized by lime  被石灰中和的工业废气
+influenced by the kind of propaganda that is difficult to neutralize  被一种难以消除的宣传攻势所影响</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1991,46 +1981,36 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>neutralize</t>
+          <t>nicety</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>vt. 中和： to cause (an acid or base) to undergo neutralization
-vt. 破坏，使无效： to make inoperative or ineffective usually by means of an opposite force, influence,or effect</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>industrial exhaust neutralized by lime  被石灰中和的工业废气
-influenced by the kind of propaganda that is difficult to neutralize  被一种难以消除的宣传攻势所影响</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>nicety</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
         <is>
           <t>n. 准确，精确： careful attention to details; delicate exactness
 n. 细微之处： a fine point or distinction</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>There's a nicety of detail in his meticulously painted landscapes.   在他精心绘制的景观图中，有着十分精准翔实的细节
 the niceties of table manner  餐桌礼仪的细微之处
 niceties of diplomatic protocol  外交礼节中的细节</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>nexus</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2040,11 +2020,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nexus</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+          <t>nibble</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>vt. 小口咬： to eat with small, quick bites or in small morsels</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>waves nibbling the shore  缓慢侵蚀海岸的浪</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2054,17 +2042,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>nibble</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>vt. 小口咬： to eat with small, quick bites or in small morsels</t>
+          <t>n. 不存在，零： nothing; zero</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>waves nibbling the shore  缓慢侵蚀海岸的浪</t>
+          <t>reduced to nil  消逝殆尽</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2076,17 +2064,18 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>nip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>n. 不存在，零： nothing; zero</t>
+          <t>n. 少量： a very small amount
+vi. 小口吃喝： to sip (alcoholic liquor) in small amounts</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>reduced to nil  消逝殆尽</t>
+          <t>I'll have just a nip of your sandwich.   我只吃一点点你的三明治</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2098,18 +2087,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>nip</t>
+          <t>nitpick</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>n. 少量： a very small amount
-vi. 小口吃喝： to sip (alcoholic liquor) in small amounts</t>
+          <t>v. 吹毛求疵： to criticize by nit-picking</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>I'll have just a nip of your sandwich.   我只吃一点点你的三明治</t>
+          <t>a peevish critic always ready to quibble  一个总是吹毛求疵的古怪评论家</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2121,17 +2109,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>nitpick</t>
+          <t>nocturnal</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>v. 吹毛求疵： to criticize by nit-picking</t>
+          <t>adj. 夜间的： of, relating to, or occurring in the night
+adj. 夜间活动的： active at night</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>a peevish critic always ready to quibble  一个总是吹毛求疵的古怪评论家</t>
+          <t>a nocturnal raid  夜间突袭
+a nocturnal predator  夜间活动的捕食者</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2143,47 +2133,45 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nocturnal</t>
+          <t>noisome</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>adj. 夜间的： of, relating to, or occurring in the night
-adj. 夜间活动的： active at night</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>a nocturnal raid  夜间突袭
-a nocturnal predator  夜间活动的捕食者</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>noisome</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
         <is>
           <t>adj. 有害的，有毒的： noxious, harmful
 adj. 恶臭的： offensive to the senses and especially to the sense of smell
 adj. 非常令人厌恶的： highly obnoxious or objectionable</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>noisome chemical fumes  有害的化学烟雾
 noisome garbage  恶臭的垃圾
 noisome habits of littering  让人反感的随地乱扔垃圾的坏习惯</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>nomad</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adj./n. 游牧的；居无定所的人： a member of a people who have no fixed residence but move fromplace to place usually seasonally and within a well-defined territory</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>after college she became quite the nomad, backpacking through Europe with no particular destination</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2193,17 +2181,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>nomad</t>
+          <t>nominal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj./n. 游牧的；居无定所的人： a member of a people who have no fixed residence but move fromplace to place usually seasonally and within a well-defined territory</t>
+          <t>adj. 不重要的： so small or unimportant as to warrant little or no attention
+adj. 名义上的： existing or being something in name or form only</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>after college she became quite the nomad, backpacking through Europe with no particular destination</t>
+          <t>His involvement was nominal.   他的参与不太重要。
+nominal head of the party  党派的名义首领</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2215,19 +2205,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>nominal</t>
+          <t>nonchalant</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 不重要的： so small or unimportant as to warrant little or no attention
-adj. 名义上的： existing or being something in name or form only</t>
+          <t>adj. 冷漠的： having an air of easy unconcern or indifference</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>His involvement was nominal.   他的参与不太重要。
-nominal head of the party  党派的名义首领</t>
+          <t>She was surprisingly nonchalant about winning the award.   她竟然对得奖很淡然。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2239,17 +2227,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>nonchalant</t>
+          <t>nondescript</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj. 冷漠的： having an air of easy unconcern or indifference</t>
+          <t>adj. 平凡的，不吸引人的： lacking distinctive or interesting qualities</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>She was surprisingly nonchalant about winning the award.   她竟然对得奖很淡然。</t>
+          <t>Their performance was disappointingly nondescript.  他们的演出令人失望，味同嚼蜡。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2261,17 +2249,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>nondescript</t>
+          <t>nonentity</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 平凡的，不吸引人的： lacking distinctive or interesting qualities</t>
+          <t>n. 不重要的人： a person or thing of little consequence or significance
+n. 虚构的东西： a conception or image created by the imagination and having no objective reality</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Their performance was disappointingly nondescript.  他们的演出令人失望，味同嚼蜡。</t>
+          <t>she was so quiet she was almost a nonentity at the meeting  她非常沉默，在会议上是个边缘人物
+the arctic circle is a nonentity—you won't see it on the way to the north pole  北极圈是虚构的概念，去北极的路上你不会见到那么一个圈</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2283,19 +2273,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>nonentity</t>
+          <t>nonplus</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>n. 不重要的人： a person or thing of little consequence or significance
-n. 虚构的东西： a conception or image created by the imagination and having no objective reality</t>
+          <t>vt.迷惑，困惑： use to be at a loss as to what to say, think, or do: perplex</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>she was so quiet she was almost a nonentity at the meeting  她非常沉默，在会议上是个边缘人物
-the arctic circle is a nonentity—you won't see it on the way to the north pole  北极圈是虚构的概念，去北极的路上你不会见到那么一个圈</t>
+          <t>I was nonplussed by his openly expressed admiration of me.  我被她公开表现的仰慕弄得很窘迫。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2307,17 +2295,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nonplus</t>
+          <t>nonsense</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vt.迷惑，困惑： use to be at a loss as to what to say, think, or do: perplex</t>
+          <t>n. 无意义的话，废话： words or language having no meaning or conveying no intelligible ideas</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>I was nonplussed by his openly expressed admiration of me.  我被她公开表现的仰慕弄得很窘迫。</t>
+          <t>Many of the words in the poem are nonsense.   这首诗歌当中很多词都是废话。</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2329,17 +2317,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nonsense</t>
+          <t>notch</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>n. 无意义的话，废话： words or language having no meaning or conveying no intelligible ideas</t>
+          <t>n. 刻痕： a V-shaped cut. Such a cut used for keeping a record
+v. 通过努力获得： to obtain (as a goal) through effort</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Many of the words in the poem are nonsense.   这首诗歌当中很多词都是废话。</t>
+          <t>a stunning performance that notched up a second Academy Award for the actor  出 色 的 表演 为 该演 员拿到了第二座小金人</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2351,18 +2340,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>notch</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n. 刻痕： a V-shaped cut. Such a cut used for keeping a record
-v. 通过努力获得： to obtain (as a goal) through effort</t>
+          <t>adj. 新奇的： strikingly new, unusual, or different</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>a stunning performance that notched up a second Academy Award for the actor  出 色 的 表演 为 该演 员拿到了第二座小金人</t>
+          <t>a novel scheme to collect money  一种新颖的筹钱手段</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2374,17 +2362,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>novel</t>
+          <t>noxious</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 新奇的： strikingly new, unusual, or different</t>
+          <t>adj. 有害的，有毒的： harmful to living things; injurious to health</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>a novel scheme to collect money  一种新颖的筹钱手段</t>
+          <t>noxious waste  有害的废弃物</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2396,17 +2384,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>noxious</t>
+          <t>nuance</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 有害的，有毒的： harmful to living things; injurious to health</t>
+          <t>n. 细微的差异： a subtle distinction or variation</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>noxious waste  有害的废弃物</t>
+          <t>a poem of little depth and nuance  一首没有什么深度、没有什么辨识度的诗</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2418,17 +2406,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>nuance</t>
+          <t>nudge</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>n. 细微的差异： a subtle distinction or variation</t>
+          <t>vt. 用肘推以引起注意： to seek the attention of by a push of the elbow
+vt. 说服某人做某事： to try to persuade (someone) through earnest appeals to follow a course ofaction</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>a poem of little depth and nuance  一首没有什么深度、没有什么辨识度的诗</t>
+          <t>accidentally nudged me as he squeezed past  他过去的时候不小心用肘碰到了我
+the car salesman nudged me into taking a test-drive  汽车销售员说服我进行试驾</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2440,19 +2430,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nudge</t>
+          <t>nugatory</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vt. 用肘推以引起注意： to seek the attention of by a push of the elbow
-vt. 说服某人做某事： to try to persuade (someone) through earnest appeals to follow a course ofaction</t>
+          <t>adj. 无关紧要的： of little or no consequence; inconsequential</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>accidentally nudged me as he squeezed past  他过去的时候不小心用肘碰到了我
-the car salesman nudged me into taking a test-drive  汽车销售员说服我进行试驾</t>
+          <t>the book is entertaining, but its contributions to Shakespearean scholarship are nugatory  这 本 书 娱 乐性不错，但是对于莎士比亚研究的贡献微不足道</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2464,17 +2452,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>nugatory</t>
+          <t>nurture</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 无关紧要的： of little or no consequence; inconsequential</t>
+          <t>vt. 提供营养： to supply with nourishment
+vt. 培育，培养： to provide (someone) with moral or spiritual understanding</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>the book is entertaining, but its contributions to Shakespearean scholarship are nugatory  这 本 书 娱 乐性不错，但是对于莎士比亚研究的贡献微不足道</t>
+          <t>nurtured her children through the winters with home-cooked soup  一整个冬天都给孩子们喂自制的汤
+he feels that his lifelong practice of reading the Bible daily has nurtured him in ways he cannot describe</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2486,19 +2476,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>nurture</t>
+          <t>oath</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 提供营养： to supply with nourishment
-vt. 培育，培养： to provide (someone) with moral or spiritual understanding</t>
+          <t>n. 誓言： a solemn, formal declaration or promise to fulfill a pledge</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>nurtured her children through the winters with home-cooked soup  一整个冬天都给孩子们喂自制的汤
-he feels that his lifelong practice of reading the Bible daily has nurtured him in ways he cannot describe</t>
+          <t>an oath to defend the nation  保卫祖国的誓言</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2510,17 +2498,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>oath</t>
+          <t>obdurate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 誓言： a solemn, formal declaration or promise to fulfill a pledge</t>
+          <t>adj. 固执的： resistant to persuasion or softening influences
+adj. 冷酷无情的： having or showing a lack of sympathy or tender feelings</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>an oath to defend the nation  保卫祖国的誓言</t>
+          <t>She is known for her obdurate determination.   她以坚定不移著称。
+the obdurate refusal of the crotchety old man to let the neighborhood kids retrieve their ball from hisbackyard  那个怪老头冷酷无情地拒绝了孩子们进他后院找球的请求</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2532,19 +2522,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>obdurate</t>
+          <t>obedient</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 固执的： resistant to persuasion or softening influences
-adj. 冷酷无情的： having or showing a lack of sympathy or tender feelings</t>
+          <t>adj. 服从的，顺从的： submissive to the restraint or command of authority</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>She is known for her obdurate determination.   她以坚定不移著称。
-the obdurate refusal of the crotchety old man to let the neighborhood kids retrieve their ball from hisbackyard  那个怪老头冷酷无情地拒绝了孩子们进他后院找球的请求</t>
+          <t>that girl is so obedient that she does everything the first time she is asked  这个妹子如此顺从，叫她做事随叫随到</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2556,17 +2544,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>obedient</t>
+          <t>obeisance</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 服从的，顺从的： submissive to the restraint or command of authority</t>
+          <t>n. 敬礼，尊重： a movement of the body made in token of respect or submission</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>that girl is so obedient that she does everything the first time she is asked  这个妹子如此顺从，叫她做事随叫随到</t>
+          <t>makes obeisance to her mentors  向她的导师们致敬</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2578,17 +2566,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>obeisance</t>
+          <t>obfuscate</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 敬礼，尊重： a movement of the body made in token of respect or submission</t>
+          <t>vt. 使困惑，使模糊： to make so confused or opaque as to be difficult to perceive or understand</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>makes obeisance to her mentors  向她的导师们致敬</t>
+          <t>obfuscate the reader  让读者困惑</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2600,17 +2588,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>obfuscate</t>
+          <t>obligatory</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>vt. 使困惑，使模糊： to make so confused or opaque as to be difficult to perceive or understand</t>
+          <t>adj. 强制性的： of the nature of an obligation; compulsory</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>obfuscate the reader  让读者困惑</t>
+          <t>obligatory military service  强制性的服军役</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2622,17 +2610,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>obligatory</t>
+          <t>obliging</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adj. 强制性的： of the nature of an obligation; compulsory</t>
+          <t>adj. 乐于助人的： willing to do favors</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>obligatory military service  强制性的服军役</t>
+          <t>an obliging concierge used his pull to get us reservations at the town's hottest restaurant  一 个 好 心 的看房人利用他的影响力帮我们在镇上最火爆的餐厅订到了座</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2644,17 +2632,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>obliging</t>
+          <t>oblique</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 乐于助人的： willing to do favors</t>
+          <t>adj. 斜的： inclined or twisted to one side</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>an obliging concierge used his pull to get us reservations at the town's hottest restaurant  一 个 好 心 的看房人利用他的影响力帮我们在镇上最火爆的餐厅订到了座</t>
+          <t>gave the eavesdropper an oblique glance  给了偷听者一个白眼</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2666,17 +2654,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>oblique</t>
+          <t>obliterate</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>adj. 斜的： inclined or twisted to one side</t>
+          <t>vt. 除去： to remove from existence</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>gave the eavesdropper an oblique glance  给了偷听者一个白眼</t>
+          <t>the March snowstorm obliterated our hopes for an early spring  三月的暴风雪摧毁了我们对于一个早春的念想</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2688,17 +2676,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>obliterate</t>
+          <t>oblivious</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vt. 除去： to remove from existence</t>
+          <t>adj. 不知道的，不知情的： lacking conscious awareness; not informed about or aware of something</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>the March snowstorm obliterated our hopes for an early spring  三月的暴风雪摧毁了我们对于一个早春的念想</t>
+          <t xml:space="preserve">He seemed oblivious to the fact that he had hurt her.   他似乎并不在意他伤害了她.  </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2710,19 +2698,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>oblivious</t>
+          <t>obloquy</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>adj. 不知道的，不知情的： lacking conscious awareness; not informed about or aware of something</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He seemed oblivious to the fact that he had hurt her.   他似乎并不在意他伤害了她.  </t>
-        </is>
-      </c>
+          <t>n. 谩骂，诽谤： abusively detractive language or utterance; calumny</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2732,15 +2716,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>obloquy</t>
+          <t>obscure</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>n. 谩骂，诽谤： abusively detractive language or utterance; calumny</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>adj. 含义模糊的： not clearly understood or expressed; having an often intentionally veiled oruncertain meaning</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>a fantasy writer who likes to put lots of obscure references in her tales of wizards and warlocks  一 个 喜欢在巫师故事中添加很多含义模糊的引用的魔幻小说作家</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2750,17 +2738,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>obscure</t>
+          <t>obsequious</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adj. 含义模糊的： not clearly understood or expressed; having an often intentionally veiled oruncertain meaning</t>
+          <t>adj. 谄媚的，奴性的： marked by or exhibiting a fawning attentiveness</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>a fantasy writer who likes to put lots of obscure references in her tales of wizards and warlocks  一 个 喜欢在巫师故事中添加很多含义模糊的引用的魔幻小说作家</t>
+          <t>She's constantly followed by obsequious assistants who will do anything.   她总是有一群谄媚的跟班，原意为她赴汤蹈火。</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2772,17 +2760,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>obsequious</t>
+          <t>obsess</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>adj. 谄媚的，奴性的： marked by or exhibiting a fawning attentiveness</t>
+          <t>vt. 迷住，使困扰： to haunt or excessively preoccupy the mind of</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>She's constantly followed by obsequious assistants who will do anything.   她总是有一群谄媚的跟班，原意为她赴汤蹈火。</t>
+          <t>The war obsesses her—she talks about nothing else.   她被战争彻底迷住了，张口闭口都谈这个。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2794,17 +2782,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>obsess</t>
+          <t>obstinate</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. 迷住，使困扰： to haunt or excessively preoccupy the mind of</t>
+          <t>adj. 固执的： perversely adhering to an opinion, purpose, or course in spite of reason, arguments, orpersuasion</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The war obsesses her—she talks about nothing else.   她被战争彻底迷住了，张口闭口都谈这个。</t>
+          <t>obstinate resistance to change  坚决抵制改变</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2816,17 +2804,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>obstinate</t>
+          <t>obstreperous</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>adj. 固执的： perversely adhering to an opinion, purpose, or course in spite of reason, arguments, orpersuasion</t>
+          <t>adj. 难驾驭的，任性的： stubbornly resistant to control; unruly; given to resisting authority or another'scontrol
+adj. 吵闹的： engaging in or marked by loud and insistent cries especially of protest</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>obstinate resistance to change  坚决抵制改变</t>
+          <t>the club's president was at his wits' end with obstreperous members who refused to cooperate  俱 乐 部主席拿那些不合作的会员一点办法都没有
+an obstreperous crowd protesting the government's immigration policy  一堆吵闹的民众游行抗议政府的移民政策</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2838,19 +2828,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>obstreperous</t>
+          <t>obstruct</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>adj. 难驾驭的，任性的： stubbornly resistant to control; unruly; given to resisting authority or another'scontrol
-adj. 吵闹的： engaging in or marked by loud and insistent cries especially of protest</t>
+          <t>vt. 妨碍，制造困难： to impede, retard, or interfere with; hinder; to create difficulty for the work oractivity of
+vt. 阻挡： to prevent passage through by filling with something</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>the club's president was at his wits' end with obstreperous members who refused to cooperate  俱 乐 部主席拿那些不合作的会员一点办法都没有
-an obstreperous crowd protesting the government's immigration policy  一堆吵闹的民众游行抗议政府的移民政策</t>
+          <t>He was charged with obstructing justice by lying to investigators.  他被指控向检察官说谎，妨碍司法。
+an unobstructed view  无阻碍的视野</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2862,19 +2852,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>obtuse</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vt. 妨碍，制造困难： to impede, retard, or interfere with; hinder; to create difficulty for the work oractivity of
-vt. 阻挡： to prevent passage through by filling with something</t>
+          <t>adj. 愚钝的： not having or showing an ability to absorb ideas readily</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>He was charged with obstructing justice by lying to investigators.  他被指控向检察官说谎，妨碍司法。
-an unobstructed view  无阻碍的视野</t>
+          <t>Are you being deliberately obtuse? 你是故意装笨吗?</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2886,19 +2874,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>obtuse</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>adj. 愚钝的： not having or showing an ability to absorb ideas readily</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Are you being deliberately obtuse? 你是故意装笨吗?</t>
-        </is>
-      </c>
+          <t>obviate</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2908,11 +2888,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>obviate</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+          <t>occult</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>adj. 难以理解的： not easily apprehended or understood : abstruse, mysterious
+v. 使隐藏或神秘： to keep secret or shut off from view</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>an occult reference in the text that has puzzled scholars  文章中一处晦涩的难倒了学者们的引注
+occulted their house from prying eyes by planting large trees around it  在住所周围种满大树防止别人偷窥 || the actor's private life had long been occulted by a contrived public persona  演员的私人生活被一个精心打造的公众形象所遮掩</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2922,19 +2912,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>occult</t>
+          <t>odium</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 难以理解的： not easily apprehended or understood : abstruse, mysterious
-v. 使隐藏或神秘： to keep secret or shut off from view</t>
+          <t>n. 憎恶，讨厌： strong dislike, contempt, or aversion</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>an occult reference in the text that has puzzled scholars  文章中一处晦涩的难倒了学者们的引注
-occulted their house from prying eyes by planting large trees around it  在住所周围种满大树防止别人偷窥 || the actor's private life had long been occulted by a contrived public persona  演员的私人生活被一个精心打造的公众形象所遮掩</t>
+          <t>time did nothing to diminish the odium in which the traitor lived out his days  时间也没有减少大家对这个叛徒的唾弃</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2946,17 +2934,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>odium</t>
+          <t>offbeat</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>n. 憎恶，讨厌： strong dislike, contempt, or aversion</t>
+          <t>adj. 不平常的： noticeably different from what is generally found or experienced</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>time did nothing to diminish the odium in which the traitor lived out his days  时间也没有减少大家对这个叛徒的唾弃</t>
+          <t>this writer has an enjoyably offbeat sense of humor  这个作者笑点很奇特</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2968,17 +2956,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>offbeat</t>
+          <t>offhand</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 不平常的： noticeably different from what is generally found or experienced</t>
+          <t>adj. 即兴的，没有准备的： without premeditation or preparation</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>this writer has an enjoyably offbeat sense of humor  这个作者笑点很奇特</t>
+          <t>couldn't give the figures offhand</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2990,17 +2978,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>offhand</t>
+          <t>officious</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 即兴的，没有准备的： without premeditation or preparation</t>
+          <t>adj. 多管闲事的： thrusting oneself where one is not welcome or invited</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>couldn't give the figures offhand</t>
+          <t>an officious little man who was always telling everyone else how to do their jobs  一个多管闲事的人，总喜欢对他人的事情指手画脚</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3012,17 +3000,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>officious</t>
+          <t>offish</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 多管闲事的： thrusting oneself where one is not welcome or invited</t>
+          <t>adj. 冷淡的： Inclined to be distant and reserved; aloof</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>an officious little man who was always telling everyone else how to do their jobs  一个多管闲事的人，总喜欢对他人的事情指手画脚</t>
+          <t>consistently surly and offish with the would-be suitors who came calling  对于追求者总是阴沉并且冷淡</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3034,17 +3022,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>offish</t>
+          <t>ominous</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 冷淡的： Inclined to be distant and reserved; aloof</t>
+          <t>adj. 凶兆的： of or being an omen, especially an evil one</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>consistently surly and offish with the would-be suitors who came calling  对于追求者总是阴沉并且冷淡</t>
+          <t>an ominous threat of war  战争来临的凶兆</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3056,17 +3044,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ominous</t>
+          <t>omniscient</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 凶兆的： of or being an omen, especially an evil one</t>
+          <t>adj. 无所不知的： possessed of universal or complete knowledge</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>an ominous threat of war  战争来临的凶兆</t>
+          <t>an omniscient deity  无所不知的神</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3078,17 +3066,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>omniscient</t>
+          <t>onerous</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 无所不知的： possessed of universal or complete knowledge</t>
+          <t>adj. 费时间花心思的： requiring much time, effort, or careful attention</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>an omniscient deity  无所不知的神</t>
+          <t>building the scale model of the frigate was an onerous task  建造军舰的小模型非常花时间</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3100,17 +3088,18 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>onerous</t>
+          <t>opaque</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 费时间花心思的： requiring much time, effort, or careful attention</t>
+          <t>adj. 不透光的：impenetrable by light; neither transparent nor translucent
+adj. 晦涩的：so obscure as to be unintelligible</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>building the scale model of the frigate was an onerous task  建造军舰的小模型非常花时间</t>
+          <t>opaque prose  晦涩的诗歌</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3122,18 +3111,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>opaque</t>
+          <t>opine</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 不透光的：impenetrable by light; neither transparent nor translucent
-adj. 晦涩的：so obscure as to be unintelligible</t>
+          <t>vt. 表达观点： to express opinions</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>opaque prose  晦涩的诗歌</t>
+          <t>You can opine about any subject you like.   你可以畅所欲言。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3145,17 +3133,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>opine</t>
+          <t>opportune</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>vt. 表达观点： to express opinions</t>
+          <t>adj. 合适的，适当的： suitable or convenient for a particular occurrence</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>You can opine about any subject you like.   你可以畅所欲言。</t>
+          <t>an opportune moment  方便的时机</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3167,17 +3155,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>opportune</t>
+          <t>opprobrious</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 合适的，适当的： suitable or convenient for a particular occurrence</t>
+          <t>adj. 辱骂的: expressing contemptuous reproach; scornful or abusive
+adj. 臭名昭著的，令人鄙视的: bringing disgrace; shameful or infamous</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>an opportune moment  方便的时机</t>
+          <t>opprobrious language  脏话
+opprobrious conduct  令人鄙视的行为</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3189,21 +3179,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>opprobrious</t>
+          <t>oration</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 辱骂的: expressing contemptuous reproach; scornful or abusive
-adj. 臭名昭著的，令人鄙视的: bringing disgrace; shameful or infamous</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>opprobrious language  脏话
-opprobrious conduct  令人鄙视的行为</t>
-        </is>
-      </c>
+          <t>n. （颇有野心、自高自大的）演说： a speech delivered in a high-flown or pompous manner</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3213,15 +3197,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>oration</t>
+          <t>orient</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>n. （颇有野心、自高自大的）演说： a speech delivered in a high-flown or pompous manner</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>vt. 确定方向，使熟悉或适应： to set or arrange in any determinate position especially in relation tothe points of the compass; to make familiar with or adjusted to facts, principles, or a situation</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>orient students toward a career in medicine  指导学生从事医学的职业道路</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3231,17 +3219,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vt. 确定方向，使熟悉或适应： to set or arrange in any determinate position especially in relation tothe points of the compass; to make familiar with or adjusted to facts, principles, or a situation</t>
+          <t>adj. 创新的： independent and creative in thought or action :inventive
+adj. 最初的，最早的： coming before all others in time or order</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>orient students toward a career in medicine  指导学生从事医学的职业道路</t>
+          <t>The car has a highly original design.   这车的设计很新颖
+the original plan had to be discarded when the situation changed drastically  当环境发生剧烈变化时，最初的计划就该被放弃</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3253,19 +3243,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>orthodox</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>adj. 创新的： independent and creative in thought or action :inventive
-adj. 最初的，最早的： coming before all others in time or order</t>
+          <t>adj. 传统的： following or agreeing with established form, custom, or rules</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>The car has a highly original design.   这车的设计很新颖
-the original plan had to be discarded when the situation changed drastically  当环境发生剧烈变化时，最初的计划就该被放弃</t>
+          <t>He believes in the benefits of both orthodox medicine and alternative medicine.  他 既 相 信传 统 药物 又相信替代药物的效用。</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3277,19 +3265,16 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>orthodox</t>
+          <t>oscillate</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>adj. 传统的： following or agreeing with established form, custom, or rules</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>He believes in the benefits of both orthodox medicine and alternative medicine.  他 既 相 信传 统 药物 又相信替代药物的效用。</t>
-        </is>
-      </c>
+          <t>vi. 振动，摇晃： to swing backward and forward like a pendulum
+v. 犹豫，变化： vary between opposing beliefs, feelings, or theories</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3299,16 +3284,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>oscillate</t>
+          <t>ossify</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vi. 振动，摇晃： to swing backward and forward like a pendulum
-v. 犹豫，变化： vary between opposing beliefs, feelings, or theories</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>vi. 硬化，僵化： to become hardened or conventional and opposed to change</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>a disease that ossifies the joints  一种会使关节僵化的疾病</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3318,17 +3306,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ossify</t>
+          <t>ostentatious</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>vi. 硬化，僵化： to become hardened or conventional and opposed to change</t>
+          <t>adj. 炫耀卖弄的： marked by or fond of conspicuous or vainglorious and sometimes pretentiousdisplay</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>a disease that ossifies the joints  一种会使关节僵化的疾病</t>
+          <t>wears an ostentatious diamond ring on her finger  她手指上戴着一枚巨大的钻戒</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3340,17 +3328,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ostentatious</t>
+          <t>ostracize</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>adj. 炫耀卖弄的： marked by or fond of conspicuous or vainglorious and sometimes pretentiousdisplay</t>
+          <t>vt. 驱逐： to exclude from a group</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>wears an ostentatious diamond ring on her finger  她手指上戴着一枚巨大的钻戒</t>
+          <t xml:space="preserve">He was ostracized from the scientific community for many years because of his radical political beliefs.  </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3362,17 +3350,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ostracize</t>
+          <t>oust</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vt. 驱逐： to exclude from a group</t>
+          <t>vt. 免职： to remove from a position of prominence or power (as a throne)
+v. 驱逐： to drive or force out</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">He was ostracized from the scientific community for many years because of his radical political beliefs.  </t>
+          <t>be ousted from power  被赶下台
+she was ousted from her job after it was proven she'd been pilfering company supplies  她 贪 污 公 司 财 物这事被证实后，她被驱逐了</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3384,19 +3374,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>oust</t>
+          <t>outgoing</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vt. 免职： to remove from a position of prominence or power (as a throne)
-v. 驱逐： to drive or force out</t>
+          <t>adj. 友好的，外向的： openly friendly and responsive: extroverted</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>be ousted from power  被赶下台
-she was ousted from her job after it was proven she'd been pilfering company supplies  她 贪 污 公 司 财 物这事被证实后，她被驱逐了</t>
+          <t>a salesman whose aggressively outgoing personality could sometimes be overbearing  一 个 销 售 员 如 果过于热情会让人不能忍</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3408,17 +3396,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>outgoing</t>
+          <t>outlandish</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 友好的，外向的： openly friendly and responsive: extroverted</t>
+          <t>adj. 古怪的，奇异的：strikingly out of the ordinary: bizarre</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>a salesman whose aggressively outgoing personality could sometimes be overbearing  一 个 销 售 员 如 果过于热情会让人不能忍</t>
+          <t>an outlandish costume  奇装异服</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3430,17 +3418,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>outlandish</t>
+          <t>outmaneuver</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 古怪的，奇异的：strikingly out of the ordinary: bizarre</t>
+          <t>vt. 以策略取胜： to overcome (an opponent) by artful, clever maneuvering</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>an outlandish costume  奇装异服</t>
+          <t>outmaneuvered his congressional opponent  以计谋战胜了国会的对手</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3452,17 +3440,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>outmaneuver</t>
+          <t>outset</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vt. 以策略取胜： to overcome (an opponent) by artful, clever maneuvering</t>
+          <t>n. 开端，开始： beginning, start</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>outmaneuvered his congressional opponent  以计谋战胜了国会的对手</t>
+          <t>I wish you'd mentioned this problem at the outset.   我希望你开门见山就提到这个问题。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3474,17 +3462,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>outset</t>
+          <t>outwit</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n. 开端，开始： beginning, start</t>
+          <t>v. 瞒骗，以智取胜： to surpass in cleverness or cunning; outsmart</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>I wish you'd mentioned this problem at the outset.   我希望你开门见山就提到这个问题。</t>
+          <t>a plan to outwit their opponents at their own game  在擅长的领域智取对手的计划</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3496,17 +3484,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>outwit</t>
+          <t>overbearing</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>v. 瞒骗，以智取胜： to surpass in cleverness or cunning; outsmart</t>
+          <t>adj. 专横傲慢的： domineering in manner; arrogant</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>a plan to outwit their opponents at their own game  在擅长的领域智取对手的计划</t>
+          <t>Her husband's overbearing manner made her miserable.  她的丈夫专横傲慢，让她痛不欲生。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3518,17 +3506,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>overbearing</t>
+          <t>overlap</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>adj. 专横傲慢的： domineering in manner; arrogant</t>
+          <t>vt. 重叠，重复： to occupy the same area in part</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Her husband's overbearing manner made her miserable.  她的丈夫专横傲慢，让她痛不欲生。</t>
+          <t>Baseball season overlaps football season in September.  棒球赛季和橄榄球赛季在九月有时间重合。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3540,17 +3528,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>overlap</t>
+          <t>overt</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>vt. 重叠，重复： to occupy the same area in part</t>
+          <t>adj. 明显的，公开的： open and observable; not hidden, concealed, or secret</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Baseball season overlaps football season in September.  棒球赛季和橄榄球赛季在九月有时间重合。</t>
+          <t>overt hostility  公然的敌意</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3562,17 +3550,18 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>overt</t>
+          <t>overture</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>adj. 明显的，公开的： open and observable; not hidden, concealed, or secret</t>
+          <t>n. 前言： an introductory section or part, as of a poem; a prelude
+n. 序曲： an instrumental composition intended especially as an introduction to an extended work,such as an opera or oratorio</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>overt hostility  公然的敌意</t>
+          <t>the parade down Main Street served as the overture for a weekend of fun and festivities  主 干 道 上 的游行活动拉开了一周节日活动的序幕</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3584,18 +3573,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>overture</t>
+          <t>oxymoron</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 前言： an introductory section or part, as of a poem; a prelude
-n. 序曲： an instrumental composition intended especially as an introduction to an extended work,such as an opera or oratorio</t>
+          <t>n. 矛盾修饰法： a combination of contradictory or incongruous words</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>the parade down Main Street served as the overture for a weekend of fun and festivities  主 干 道 上 的游行活动拉开了一周节日活动的序幕</t>
+          <t>The phrase “cruel kindness” is an oxymoron.   “残酷的仁慈”就是矛盾修饰法的一个例子。|| The phrase“Broadway rock musical” is an oxymoron.   Broadway doesn't have the nerve to let the really hard stuff in the house.  “百老汇的摇滚音乐剧”是个反讽。百老汇才不会允许吵吵闹闹的东西在里面演出。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3607,17 +3595,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>oxymoron</t>
+          <t>pacify</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 矛盾修饰法： a combination of contradictory or incongruous words</t>
+          <t>vt. 使平静，安慰： to ease the anger or agitation of</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>The phrase “cruel kindness” is an oxymoron.   “残酷的仁慈”就是矛盾修饰法的一个例子。|| The phrase“Broadway rock musical” is an oxymoron.   Broadway doesn't have the nerve to let the really hard stuff in the house.  “百老汇的摇滚音乐剧”是个反讽。百老汇才不会允许吵吵闹闹的东西在里面演出。</t>
+          <t>pacify a crying child  安抚一个哭泣的孩子</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3629,17 +3617,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>pacify</t>
+          <t>padding</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>vt. 使平静，安慰： to ease the anger or agitation of</t>
+          <t>n. 夸张，废话： the representation of something in terms that go beyond the facts</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>pacify a crying child  安抚一个哭泣的孩子</t>
+          <t>that feature writer is sometimes guilty of padding, but he keeps it from getting out of hand  这 作 者 有 时候夸夸其谈，但是保持了适度</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3651,17 +3639,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>padding</t>
+          <t>paean</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 夸张，废话： the representation of something in terms that go beyond the facts</t>
+          <t>n. 欢乐颂： a joyous song or hymn of praise, tribute, thanksgiving, or triumph</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>that feature writer is sometimes guilty of padding, but he keeps it from getting out of hand  这 作 者 有 时候夸夸其谈，但是保持了适度</t>
+          <t>her retirement party featured many paeans for her long years of service to the company  她 的 退 休 派对满是对她多年在公司辛勤工作的赞颂</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3673,17 +3661,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>paean</t>
+          <t>painstaking</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 欢乐颂： a joyous song or hymn of praise, tribute, thanksgiving, or triumph</t>
+          <t>adj. 煞费苦心的： taking pains: expending, showing, or involving diligent care and effort</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>her retirement party featured many paeans for her long years of service to the company  她 的 退 休 派对满是对她多年在公司辛勤工作的赞颂</t>
+          <t>It took months of painstaking research to write the book.  这本书的写作耗费了几个月的苦心研究。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3695,17 +3683,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>painstaking</t>
+          <t>palatable</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 煞费苦心的： taking pains: expending, showing, or involving diligent care and effort</t>
+          <t>adj. 感到愉悦满足的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>It took months of painstaking research to write the book.  这本书的写作耗费了几个月的苦心研究。</t>
+          <t>I always associate the palatable aroma of roasting turkey with Thanksgiving.   我总是把香喷喷的烤火鸡的味道和感恩节联系起来</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3717,17 +3705,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>palatable</t>
+          <t>palatial</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 感到愉悦满足的： giving pleasure or contentment to the mind or senses</t>
+          <t>adj. 宫殿般奢华的： of the nature of a palace, as in spaciousness or ornateness</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>I always associate the palatable aroma of roasting turkey with Thanksgiving.   我总是把香喷喷的烤火鸡的味道和感恩节联系起来</t>
+          <t>a palatial penthouse apartment  一套豪华的顶层公寓</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3739,17 +3727,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>palatial</t>
+          <t>pall</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 宫殿般奢华的： of the nature of a palace, as in spaciousness or ornateness</t>
+          <t>vi. 失去兴趣： to lose in interest or attraction</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>a palatial penthouse apartment  一套豪华的顶层公寓</t>
+          <t>His humor began to pall on us.   他的幽默开始使我们生腻了。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3761,17 +3749,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>pall</t>
+          <t>palliate</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vi. 失去兴趣： to lose in interest or attraction</t>
+          <t>v. 平息，减轻： to make less severe or intense; mitigate</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>His humor began to pall on us.   他的幽默开始使我们生腻了。</t>
+          <t>palliative drug  缓解剂</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3783,17 +3771,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>palliate</t>
+          <t>pallid</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>v. 平息，减轻： to make less severe or intense; mitigate</t>
+          <t>adj. 无生气的，缺乏活力的： lacking in radiance or vitality; dull
+adj. 苍白无血色的： having an abnormally pale or wan complexion</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>palliative drug  缓解剂</t>
+          <t>The movie is a pallid version of the classic novel.   这部经典小说改编的电影很苍白无力。
+a pallid girl who looked as though she'd never seen the sun  一个面色苍白的姑娘，仿佛从来没有晒过太阳</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3805,19 +3795,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>pallid</t>
+          <t>palmy</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 无生气的，缺乏活力的： lacking in radiance or vitality; dull
-adj. 苍白无血色的： having an abnormally pale or wan complexion</t>
+          <t>adj. 繁荣的： marked by prosperity</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The movie is a pallid version of the classic novel.   这部经典小说改编的电影很苍白无力。
-a pallid girl who looked as though she'd never seen the sun  一个面色苍白的姑娘，仿佛从来没有晒过太阳</t>
+          <t>the palmy days of the British drama  英国戏剧的繁荣时期</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3829,44 +3817,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>palmy</t>
+          <t>palpable</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>adj. 繁荣的： marked by prosperity</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>the palmy days of the British drama  英国戏剧的繁荣时期</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>palpable</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 摸得到的： capable of being touched or felt
 adj. 明显的，易觉察的： easily perceived; obvious</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>a small but palpable lump in my neck  我脖子上有一块小但是能摸得到的肿块
 a palpable difference  易觉察的差别</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_3.xlsx
+++ b/result/生词本导入模版_3.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,45 +434,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>mischievous</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>adj. 调皮的，调皮的： playful in a naughty or teasing way
 adj. 有害的： causing harm or trouble</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The mischievous child broke the vase.  调皮的孩子打碎了花瓶
 mischievous rumors that defame him  恶意中伤他的谣言</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>misconstrue</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vt. 误解，曲解： to mistake the meaning of</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>An outsider might misconstrue the nature of the phenomenon.   局外者可能会曲解这个现象的本质</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -470,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>miscreant</t>
+          <t>misconstrue</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 恶棍，罪犯： one who behaves criminally or viciously</t>
+          <t>vt. 误解，曲解： to mistake the meaning of</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>robbed by a bunch of miscreants  遭到了一伙歹徒的抢劫</t>
+          <t>An outsider might misconstrue the nature of the phenomenon.   局外者可能会曲解这个现象的本质</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -492,17 +504,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>misdemeanor</t>
+          <t>miscreant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 轻罪： a crime less serious than a felony</t>
+          <t>n. 恶棍，罪犯： one who behaves criminally or viciously</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>charged with several misdemeanors  被指控几项轻罪</t>
+          <t>robbed by a bunch of miscreants  遭到了一伙歹徒的抢劫</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -514,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>miserly</t>
+          <t>misdemeanor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 吝啬的： marked by grasping meanness and penuriousness</t>
+          <t>n. 轻罪： a crime less serious than a felony</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>a miserly couple devoid of social conscience and responsibility  一对没有社会良心和责任感的吝啬夫妻</t>
+          <t>charged with several misdemeanors  被指控几项轻罪</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>misfortune</t>
+          <t>miserly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 不幸： bad fortune or ill luck</t>
+          <t>adj. 吝啬的： marked by grasping meanness and penuriousness</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>unable to grasp why he had been struck by such a misfortune  无法理解他为何会遇上如此不幸之事</t>
+          <t>a miserly couple devoid of social conscience and responsibility  一对没有社会良心和责任感的吝啬夫妻</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -558,17 +570,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>misgiving</t>
+          <t>misfortune</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 担忧，疑虑： a feeling of doubt or suspicion especially concerning a future event</t>
+          <t>n. 不幸： bad fortune or ill luck</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No one can dispel his misgiving.   没有人能打消他的疑虑</t>
+          <t>unable to grasp why he had been struck by such a misfortune  无法理解他为何会遇上如此不幸之事</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -580,17 +592,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mishap</t>
+          <t>misgiving</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 不幸之事： an unfortunate accident</t>
+          <t>n. 担忧，疑虑： a feeling of doubt or suspicion especially concerning a future event</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mishap followed wherever he went.   不论他走到哪里，厄运总是形影相随</t>
+          <t>No one can dispel his misgiving.   没有人能打消他的疑虑</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -602,17 +614,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>misrepresent</t>
+          <t>mishap</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vt. 误传，篡改： to give an incorrect or misleading representation of</t>
+          <t>n. 不幸之事： an unfortunate accident</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>misrepresent the facts  篡改事实真相</t>
+          <t>Mishap followed wherever he went.   不论他走到哪里，厄运总是形影相随</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -624,17 +636,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mite</t>
+          <t>misrepresent</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 微小的东西，很少的钱： a very small object, creature, or particle, a very small sum of money</t>
+          <t>vt. 误传，篡改： to give an incorrect or misleading representation of</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>I have only a mite left to buy lunch for the rest of the week.   我只剩下一点钱来买剩下一周几天的午饭了</t>
+          <t>misrepresent the facts  篡改事实真相</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -646,17 +658,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mitigate</t>
+          <t>mite</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vt. 减轻痛苦，使缓和： to make less severe or painful</t>
+          <t>n. 微小的东西，很少的钱： a very small object, creature, or particle, a very small sum of money</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>powerful drugs that mitigate pains  强力的镇痛剂</t>
+          <t>I have only a mite left to buy lunch for the rest of the week.   我只剩下一点钱来买剩下一周几天的午饭了</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -668,88 +680,88 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>mitigate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vt. 减轻痛苦，使缓和： to make less severe or painful</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>powerful drugs that mitigate pains  强力的镇痛剂</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>mobile</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>adj. 可移动的： capable of moving or being moved
 adj. 可变的： changeable in appearance, mood, or purpose</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>a mobile missile launcher  可移动导弹发射装置
 a highly mobile face  善变的面孔</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>mockery</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n. 鄙视，嘲弄： scornfully contemptuous ridicule
 n. 以嘲笑为目的的模仿： a false, derisive, or impudent imitation</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Her deliberate mockery triggered a fierce fight.  她的蓄意嘲弄引起了一场激烈的打斗
 arbitrary methods that make a mockery of justice  嘲讽司法公正的仲裁体系</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>moderate</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>vt. 使缓和： to lessen the intensity or extremeness of
 adj. 适度的，中庸的： being within reasonable limits; not excessive or extreme</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Sopranos and tenors moderates their voices to fit the size of the theater.   女高音和男高音们根据剧场的大小调节他们的声音以创造合适的效果</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>modicum</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>n. 少量： a small portion; a limited quantity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>a modicum of food quota  极少量的食物配额</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -761,17 +773,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mollify</t>
+          <t>modicum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 平息抚慰，缓和： to calm in temper or feeling</t>
+          <t>n. 少量： a small portion; a limited quantity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mollify the angry customer  平息消费者的怒气</t>
+          <t>a modicum of food quota  极少量的食物配额</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -783,17 +795,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mollycoddle</t>
+          <t>mollify</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vt. 溺爱： to treat with an excessive or absurd degree of indulgence and attention</t>
+          <t>vt. 平息抚慰，缓和： to calm in temper or feeling</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mollycoddle his only grandson  溺爱他唯一的孙子</t>
+          <t>mollify the angry customer  平息消费者的怒气</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -805,17 +817,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>molt</t>
+          <t>mollycoddle</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vi. 脱（羽、皮等）： to shed hair, feathers, shell, horns, or an outer layer periodically</t>
+          <t>vt. 溺爱： to treat with an excessive or absurd degree of indulgence and attention</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Snakes molt as they grow, shedding the old skin and growing a larger new skin.   随着年龄的增长，蛇会脱去老皮，长出新皮</t>
+          <t>mollycoddle his only grandson  溺爱他唯一的孙子</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -827,17 +839,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>momentous</t>
+          <t>molt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 极重要的： of utmost importance; of outstanding significance or consequence</t>
+          <t>vi. 脱（羽、皮等）： to shed hair, feathers, shell, horns, or an outer layer periodically</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Battle of Stalingrad is a momentous campaign in World War 2.   斯大林格勒之战是第二次世界大战中具有重大意义的一次战役</t>
+          <t>Snakes molt as they grow, shedding the old skin and growing a larger new skin.   随着年龄的增长，蛇会脱去老皮，长出新皮</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -849,17 +861,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>momentous</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 动力： impetus of a physical object in motion</t>
+          <t>adj. 极重要的： of utmost importance; of outstanding significance or consequence</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Their luck began to pick up momentum.   他们的运气开始转旺</t>
+          <t>Battle of Stalingrad is a momentous campaign in World War 2.   斯大林格勒之战是第二次世界大战中具有重大意义的一次战役</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -871,17 +883,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mongrel</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 杂种的，混血儿的： of mixed origin or character</t>
+          <t>n. 动力： impetus of a physical object in motion</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>homeless mongrel dogs on the streets  街上的流浪杂种狗</t>
+          <t>Their luck began to pick up momentum.   他们的运气开始转旺</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -893,43 +905,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>mongrel</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>adj. 杂种的，混血儿的： of mixed origin or character</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>homeless mongrel dogs on the streets  街上的流浪杂种狗</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>monochromatic</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>adj. 单色的： having or consisting of one color or hue
 adj. 单调无聊的： lacking variety, creativity, or excitement</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>monochromatic filter  单色滤光片
 a monochromatic article eulogizing a hero  一个无聊的赞颂英雄的文章</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>monologue</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>n. 独白：a dramatic sketch performed by one actor</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>deliver a tedious monologue  做了一个冗长的独白</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -939,43 +951,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>monologue</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n. 独白：a dramatic sketch performed by one actor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>deliver a tedious monologue  做了一个冗长的独白</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>monotonous</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>adj. （声音）单调的： uttered or sounded in one unvarying tone
 adj. 清一色的，无聊的： tediously uniform or unvarying</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>a monotonous apathetic voice  单调而冷漠的声音
 a sparkle in the monotonous background  单调背景中的一个亮点</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>montage</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>n. 大杂烩： an unorganized collection or mixture of various things</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>My memories of the childhood trip are a montage of the sights of two rivers, smells of hotpots, and soundsof light railway of Chongqing.   我孩提时代旅行的记忆就是由两江风光、火锅的香味以及重庆的轻轨声杂糅而成的</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -985,17 +997,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>moratorium</t>
+          <t>montage</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 延期，暂缓施行： a suspension of activity</t>
+          <t>n. 大杂烩： an unorganized collection or mixture of various things</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>a moratorium on nuclear tests  暂缓核试验</t>
+          <t>My memories of the childhood trip are a montage of the sights of two rivers, smells of hotpots, and soundsof light railway of Chongqing.   我孩提时代旅行的记忆就是由两江风光、火锅的香味以及重庆的轻轨声杂糅而成的</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1007,43 +1019,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>moratorium</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n. 延期，暂缓施行： a suspension of activity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>a moratorium on nuclear tests  暂缓核试验</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>morbid</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>adj. 病态的： affected with or induced by disease
 adj. 思想性格变态的： characterized by preoccupation with unwholesome thoughts or feelings</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>exhibit a morbid fascination  展现出一种病态的迷恋
 read the account of the murder with a morbid interest  怀着病态的心态读谋杀报告</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>mordant</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>adj. 尖酸刻薄的： biting and caustic in thought, manner, or style</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>feel embarrassed about the mordant satire of the critics  对评论家刻薄的讽刺感到尴尬</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1053,35 +1065,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>mordant</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>adj. 尖酸刻薄的： biting and caustic in thought, manner, or style</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>feel embarrassed about the mordant satire of the critics  对评论家刻薄的讽刺感到尴尬</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>moribund</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>adj. 即将结束的，垂死的： approaching death; about to die
 adj. 即将过时的： on the verge of becoming obsolete</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The nation’s banking industry was moribund.   这个国家的银行业危在旦夕
 Some social conventions have been rendered moribund in face of modernization.   不少传统习俗在现代化的影响下变得岌岌可危</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>morose</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1091,19 +1111,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mosaic</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. 综合物，马赛克般的东西： an unorganized collection or mixture of various things</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>a mosaic of testimony from various witnesses  从不同证人中得来的综合证词</t>
-        </is>
-      </c>
+          <t>morose</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1113,17 +1125,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mosque</t>
+          <t>mosaic</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 清真寺： a building used for public worship by Muslim</t>
+          <t>n. 综合物，马赛克般的东西： an unorganized collection or mixture of various things</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a deadly suicide attack at the mosque  在清真寺发生的致命自杀性袭击</t>
+          <t>a mosaic of testimony from various witnesses  从不同证人中得来的综合证词</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1135,17 +1147,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>motile</t>
+          <t>mosque</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adj. 能动的：exhibiting or capable of movement</t>
+          <t>n. 清真寺： a building used for public worship by Muslim</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aircraft carriers are recognized as a motile combat platform.   航空母舰是一种移动作战平台</t>
+          <t>a deadly suicide attack at the mosque  在清真寺发生的致命自杀性袭击</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1157,17 +1169,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>motivate</t>
+          <t>motile</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vt. 刺激，激发： to provide with an incentive; move to action</t>
+          <t>adj. 能动的：exhibiting or capable of movement</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>questions that excite and motivate youth  激发青年人的问题</t>
+          <t>Aircraft carriers are recognized as a motile combat platform.   航空母舰是一种移动作战平台</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1179,17 +1191,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>motley</t>
+          <t>motivate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 混杂的，富于变化的： (especially of colors) having elements of great variety or incongruity</t>
+          <t>vt. 刺激，激发： to provide with an incentive; move to action</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>an arrangement of motley flowers  多种不同花束的组合</t>
+          <t>questions that excite and motivate youth  激发青年人的问题</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1201,17 +1213,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mottle</t>
+          <t>motley</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vt. 标记上杂色斑点： to mark with spots or blotches of different shades or colors</t>
+          <t>adj. 混杂的，富于变化的： (especially of colors) having elements of great variety or incongruity</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>a black horse mottled with white  身上带有白色斑点的黑马</t>
+          <t>an arrangement of motley flowers  多种不同花束的组合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1223,17 +1235,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>motto</t>
+          <t>mottle</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 座右铭： a short expression of a guiding principle</t>
+          <t>vt. 标记上杂色斑点： to mark with spots or blotches of different shades or colors</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>“Semper fidelis” is the motto of US Marine Corps.   “永远忠诚”是美国海军陆战队的格言</t>
+          <t>a black horse mottled with white  身上带有白色斑点的黑马</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1245,42 +1257,42 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>motto</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n. 座右铭： a short expression of a guiding principle</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>“Semper fidelis” is the motto of US Marine Corps.   “永远忠诚”是美国海军陆战队的格言</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>mournful</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>adj. 悲伤的： feeling or expressing sorrow or grief</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>The mournful survivors of the disaster were faced with the grim task of burying the dead.  悲 伤 的 幸 存者面临着掩埋灾难中死者尸体的可怕任务
 Mrs.   Murphy fainted at the mournful news of her son’s death.   Murphy  太太听到她儿子的死讯后晕了过去</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>n. 运动： the act or process of moving</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>There appears to be some movement in the bush.   树丛中似乎有动静</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1290,45 +1302,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>movement</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n. 运动： the act or process of moving</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>There appears to be some movement in the bush.   树丛中似乎有动静</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>muddy</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 不干净的： not clean
 adj. 浑浊的，不清晰的： lacking in clarity or brightness
 v. 使难以理解： to make (something) unclear to the understanding</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>got muddy after playing outside  在外面玩弄得很脏
 a muddy recording  嘈杂不清的纪录
 That point is irrelevant and will just muddy the issue we're trying to resolve.  那个观点和讨论我们的问题毫不相干，它只会妨碍我们对于问题的理解</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>muffle</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>vt. 使消声： to wrap or pad in order to deaden the sound</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>close the window to muffle the outside noises  关上窗户以减少外界的噪音</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1338,17 +1350,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mulish</t>
+          <t>muffle</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 固执的： unreasonably and inflexibly obstinate</t>
+          <t>vt. 使消声： to wrap or pad in order to deaden the sound</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a mulish determination to act on his own  铁了心要单打独斗</t>
+          <t>close the window to muffle the outside noises  关上窗户以减少外界的噪音</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1360,17 +1372,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mumble</t>
+          <t>mulish</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>v. 说话含糊： to utter words in a low confused indistinct manner</t>
+          <t>adj. 固执的： unreasonably and inflexibly obstinate</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>He mumbled an apology reluctantly.   他不情愿地咕哝了句抱歉</t>
+          <t>a mulish determination to act on his own  铁了心要单打独斗</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1382,43 +1394,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>mumble</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>v. 说话含糊： to utter words in a low confused indistinct manner</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>He mumbled an apology reluctantly.   他不情愿地咕哝了句抱歉</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>mundane</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj. 尘世的，世俗化的： of, relating to, or typical of this world
 adj. 平凡的： relating to, characteristic of, or concerned with commonplaces</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>As for opera, I prefer mundane to religious themes.  与宗教主题相比，我更喜欢世俗主题的歌剧
 mundane concerns of day-to-day life  关于日常生活的一般顾虑</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>munificent</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>adj. 慷慨的： very liberal in giving</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>The university received a munificent foundation grant.   大学收到了一笔慷慨的基金资助</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1428,67 +1440,67 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>munificent</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>adj. 慷慨的： very liberal in giving</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The university received a munificent foundation grant.   大学收到了一笔慷慨的基金资助</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>murky</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>adj. 黯淡的，昏暗的： being without light or without much light
 adj. 模糊的，晦涩的： lacking clarity or distinctness</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>I didn't like walking around the murky campground without a flashlight.  我不喜欢在没有手电的情况下在营地里走动
 He felt lost in the murky bureaucratic rhetoric.   他感觉自己被官僚主义的晦涩说辞弄晕了</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>murmur</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>n. 小声的话语： a low, indistinct, continuous sound
 v. 低声抱怨，发牢骚： to complain in low mumbling tones; grumble</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语
 We could hear the murmur of the audience throughout the entire performance.  我 们 在 整个 演 出当 中都能听到观众的窃窃私语</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>mutate</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>v. （使）改变，（使）变异： to undergo or cause to undergo mutation</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Some chromosomes started to mutate after exposure to X-Ray.   经 X  光照射之后部分染色体发生了变异</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1498,44 +1510,44 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>mutate</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>v. （使）改变，（使）变异： to undergo or cause to undergo mutation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Some chromosomes started to mutate after exposure to X-Ray.   经 X  光照射之后部分染色体发生了变异</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>mute</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 不说话的，缄默的： deliberately refraining from speech
 vt. 使颜色、音调等柔和： to soften the tone, color, shade, or hue of
 vt. 减弱声音： to soften or muffle the sound of</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>He always remained mute no matter how much we pleaded for an answer  不论我们怎么恳求回答，他总是保持沉默
 mute a color  对颜色进行柔化</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mutter</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>vi. 低声抱怨： to murmur complainingly or angrily</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>mutter about the difficult assignment  抱怨作业太难</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1545,17 +1557,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>myopic</t>
+          <t>mutter</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 缺乏远见的，缺乏辨别能力的： a lack of foresight or discernment</t>
+          <t>vi. 低声抱怨： to murmur complainingly or angrily</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a myopic view on climate change  关于气候变化缺乏远见的观点</t>
+          <t>mutter about the difficult assignment  抱怨作业太难</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1567,17 +1579,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>myriad</t>
+          <t>myopic</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 无限的，大量的： constituting a very large, indefinite number</t>
+          <t>adj. 缺乏远见的，缺乏辨别能力的： a lack of foresight or discernment</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>the myriad stars of a summer night  夏日夜空中的无尽繁星</t>
+          <t>a myopic view on climate change  关于气候变化缺乏远见的观点</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1589,17 +1601,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>nadir</t>
+          <t>myriad</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>n. 最低点： the lowest point</t>
+          <t>adj. 无限的，大量的： constituting a very large, indefinite number</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>the nadir on the curve  曲线上的最低点</t>
+          <t>the myriad stars of a summer night  夏日夜空中的无尽繁星</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1611,17 +1623,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>naïve</t>
+          <t>nadir</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 天真纯朴的： lacking worldly experience and understanding, simple and guileless</t>
+          <t>n. 最低点： the lowest point</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>a child with a naïve charm  天真无邪的孩子</t>
+          <t>the nadir on the curve  曲线上的最低点</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1633,17 +1645,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>narcissism</t>
+          <t>naïve</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>n. 自恋： excessive love or admiration of oneself</t>
+          <t>adj. 天真纯朴的： lacking worldly experience and understanding, simple and guileless</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>In his narcissism, he just assumed that everyone else wanted to hear the tiny details of his day.   在 他 自恋的眼中，所有人仿佛都想要听他日常生活里的细枝末节</t>
+          <t>a child with a naïve charm  天真无邪的孩子</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1655,17 +1667,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nascent</t>
+          <t>narcissism</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 新生的： coming or having recently come into existence</t>
+          <t>n. 自恋： excessive love or admiration of oneself</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The rise of the nascent middle class catalyzed a new economic boom.  新生中产阶级的崛起催生了一场新的经济繁荣</t>
+          <t>In his narcissism, he just assumed that everyone else wanted to hear the tiny details of his day.   在 他 自恋的眼中，所有人仿佛都想要听他日常生活里的细枝末节</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1677,17 +1689,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>natty</t>
+          <t>nascent</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 整洁的，时髦的： trimly neat and tidy</t>
+          <t>adj. 新生的： coming or having recently come into existence</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>a natty young woman  整洁漂亮的年轻女子</t>
+          <t>The rise of the nascent middle class catalyzed a new economic boom.  新生中产阶级的崛起催生了一场新的经济繁荣</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1699,17 +1711,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nauseate</t>
+          <t>natty</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>v. （使）厌恶，（使）作呕： to feel or cause to feel loathing or disgust</t>
+          <t>adj. 整洁的，时髦的： trimly neat and tidy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>The malodor of the rotten meat made us nauseate.  腐肉的恶臭让我们恶心</t>
+          <t>a natty young woman  整洁漂亮的年轻女子</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1721,17 +1733,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nautical</t>
+          <t>nauseate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 航海的： of, relating to, or characteristic of ships, shipping, sailors, or navigation on a body ofwater</t>
+          <t>v. （使）厌恶，（使）作呕： to feel or cause to feel loathing or disgust</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nautical mile  海里</t>
+          <t>The malodor of the rotten meat made us nauseate.  腐肉的恶臭让我们恶心</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1743,15 +1755,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>naysay</t>
+          <t>nautical</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vt. 拒绝，否认： to oppose, deny, or take a pessimistic or negative view of</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>adj. 航海的： of, relating to, or characteristic of ships, shipping, sailors, or navigation on a body ofwater</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>nautical mile  海里</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1761,19 +1777,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nebulous</t>
+          <t>naysay</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 模糊的： indistinct, vague</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>a nebulous description of the topic  对于主题的模糊描述</t>
-        </is>
-      </c>
+          <t>vt. 拒绝，否认： to oppose, deny, or take a pessimistic or negative view of</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1783,17 +1795,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>needy</t>
+          <t>nebulous</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 贫困的：being in need; impoverished, poor</t>
+          <t>adj. 模糊的： indistinct, vague</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>As a child, she was extremely needy and had no self-confidence.   她是一个非常贫穷的小孩，因此缺乏自信</t>
+          <t>a nebulous description of the topic  对于主题的模糊描述</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,17 +1817,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nefarious</t>
+          <t>needy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 极坏的，邪恶的： flagrantly wicked or impious</t>
+          <t>adj. 贫困的：being in need; impoverished, poor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>a nefarious scheme to assassinate the archbishop  企图刺杀大主教的邪恶阴谋</t>
+          <t>As a child, she was extremely needy and had no self-confidence.   她是一个非常贫穷的小孩，因此缺乏自信</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,17 +1839,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>negation</t>
+          <t>nefarious</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n. 否定： the opposite or absence of something regarded as actual, positive, or affirmative</t>
+          <t>adj. 极坏的，邪恶的： flagrantly wicked or impious</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>issued specific negations of all of the charges against her  发表了明确的声明，否定了所有对她的指控</t>
+          <t>a nefarious scheme to assassinate the archbishop  企图刺杀大主教的邪恶阴谋</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,17 +1861,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>negligent</t>
+          <t>negation</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>adj. 疏忽大意的： failing to give proper attention or care</t>
+          <t>n. 否定： the opposite or absence of something regarded as actual, positive, or affirmative</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>negligent in taking care of the children  粗心大意地照顾孩子</t>
+          <t>issued specific negations of all of the charges against her  发表了明确的声明，否定了所有对她的指控</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,43 +1883,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>negligent</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. 疏忽大意的： failing to give proper attention or care</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>negligent in taking care of the children  粗心大意地照顾孩子</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>negotiate</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vi. 商量，谈判： to arrange or settle by discussion and mutual agreement
 vi. 谋划： plan out usually with subtle skill or care</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>negotiate the term of truce  共商停战事宜
 The prisoners negotiated their escape by using Morse code to tap messages to each other through thewalls.  犯人们通过敲击墙壁来传达莫尔斯电码，从而密谋了他们的逃跑计划</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>neophyte</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>n. 初学者，新手： a beginner or novice</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>a novice in the theater who had never even had a walk-on role  一个连龙套都没跑过的新演员</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1917,15 +1929,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nerve</t>
+          <t>neophyte</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n. （坚强的）意志，勇气： power of endurance or control; strength of mind to carry on in spite ofdanger</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>n. 初学者，新手： a beginner or novice</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>a novice in the theater who had never even had a walk-on role  一个连龙套都没跑过的新演员</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1935,19 +1951,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>nettle</t>
+          <t>nerve</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vt. 惹怒： to arouse to sharp but transitory annoyance or anger</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>His pompous attitude nettled several people.   他自大的性格得罪了不少人</t>
-        </is>
-      </c>
+          <t>n. （坚强的）意志，勇气： power of endurance or control; strength of mind to carry on in spite ofdanger</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1957,60 +1969,68 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>nettle</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>vt. 惹怒： to arouse to sharp but transitory annoyance or anger</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>His pompous attitude nettled several people.   他自大的性格得罪了不少人</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>neutralize</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>vt. 中和： to cause (an acid or base) to undergo neutralization
 vt. 破坏，使无效： to make inoperative or ineffective usually by means of an opposite force, influence,or effect</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>industrial exhaust neutralized by lime  被石灰中和的工业废气
 influenced by the kind of propaganda that is difficult to neutralize  被一种难以消除的宣传攻势所影响</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>nicety</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>n. 准确，精确： careful attention to details; delicate exactness
 n. 细微之处： a fine point or distinction</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>There's a nicety of detail in his meticulously painted landscapes.   在他精心绘制的景观图中，有着十分精准翔实的细节
 the niceties of table manner  餐桌礼仪的细微之处
 niceties of diplomatic protocol  外交礼节中的细节</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>nexus</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2020,19 +2040,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nibble</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>vt. 小口咬： to eat with small, quick bites or in small morsels</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>waves nibbling the shore  缓慢侵蚀海岸的浪</t>
-        </is>
-      </c>
+          <t>nexus</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2042,17 +2054,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>nibble</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>n. 不存在，零： nothing; zero</t>
+          <t>vt. 小口咬： to eat with small, quick bites or in small morsels</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>reduced to nil  消逝殆尽</t>
+          <t>waves nibbling the shore  缓慢侵蚀海岸的浪</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2064,40 +2076,40 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>n. 不存在，零： nothing; zero</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>reduced to nil  消逝殆尽</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>nip</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>n. 少量： a very small amount
 vi. 小口吃喝： to sip (alcoholic liquor) in small amounts</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>I'll have just a nip of your sandwich.   我只吃一点点你的三明治</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>nitpick</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>v. 吹毛求疵： to criticize by nit-picking</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>a peevish critic always ready to quibble  一个总是吹毛求疵的古怪评论家</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2109,69 +2121,69 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>nitpick</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>v. 吹毛求疵： to criticize by nit-picking</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>a peevish critic always ready to quibble  一个总是吹毛求疵的古怪评论家</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>nocturnal</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>adj. 夜间的： of, relating to, or occurring in the night
 adj. 夜间活动的： active at night</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>a nocturnal raid  夜间突袭
 a nocturnal predator  夜间活动的捕食者</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>noisome</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. 有害的，有毒的： noxious, harmful
 adj. 恶臭的： offensive to the senses and especially to the sense of smell
 adj. 非常令人厌恶的： highly obnoxious or objectionable</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>noisome chemical fumes  有害的化学烟雾
 noisome garbage  恶臭的垃圾
 noisome habits of littering  让人反感的随地乱扔垃圾的坏习惯</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>nomad</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>adj./n. 游牧的；居无定所的人： a member of a people who have no fixed residence but move fromplace to place usually seasonally and within a well-defined territory</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>after college she became quite the nomad, backpacking through Europe with no particular destination</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2181,43 +2193,43 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>nomad</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>adj./n. 游牧的；居无定所的人： a member of a people who have no fixed residence but move fromplace to place usually seasonally and within a well-defined territory</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>after college she became quite the nomad, backpacking through Europe with no particular destination</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>nominal</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>adj. 不重要的： so small or unimportant as to warrant little or no attention
 adj. 名义上的： existing or being something in name or form only</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>His involvement was nominal.   他的参与不太重要。
 nominal head of the party  党派的名义首领</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>nonchalant</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>adj. 冷漠的： having an air of easy unconcern or indifference</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>She was surprisingly nonchalant about winning the award.   她竟然对得奖很淡然。</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2227,17 +2239,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>nondescript</t>
+          <t>nonchalant</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj. 平凡的，不吸引人的： lacking distinctive or interesting qualities</t>
+          <t>adj. 冷漠的： having an air of easy unconcern or indifference</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Their performance was disappointingly nondescript.  他们的演出令人失望，味同嚼蜡。</t>
+          <t>She was surprisingly nonchalant about winning the award.   她竟然对得奖很淡然。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2249,43 +2261,43 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>nondescript</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adj. 平凡的，不吸引人的： lacking distinctive or interesting qualities</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Their performance was disappointingly nondescript.  他们的演出令人失望，味同嚼蜡。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>nonentity</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>n. 不重要的人： a person or thing of little consequence or significance
 n. 虚构的东西： a conception or image created by the imagination and having no objective reality</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>she was so quiet she was almost a nonentity at the meeting  她非常沉默，在会议上是个边缘人物
 the arctic circle is a nonentity—you won't see it on the way to the north pole  北极圈是虚构的概念，去北极的路上你不会见到那么一个圈</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>nonplus</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>vt.迷惑，困惑： use to be at a loss as to what to say, think, or do: perplex</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>I was nonplussed by his openly expressed admiration of me.  我被她公开表现的仰慕弄得很窘迫。</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2295,17 +2307,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nonsense</t>
+          <t>nonplus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>n. 无意义的话，废话： words or language having no meaning or conveying no intelligible ideas</t>
+          <t>vt.迷惑，困惑： use to be at a loss as to what to say, think, or do: perplex</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Many of the words in the poem are nonsense.   这首诗歌当中很多词都是废话。</t>
+          <t>I was nonplussed by his openly expressed admiration of me.  我被她公开表现的仰慕弄得很窘迫。</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2317,40 +2329,40 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>nonsense</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n. 无意义的话，废话： words or language having no meaning or conveying no intelligible ideas</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Many of the words in the poem are nonsense.   这首诗歌当中很多词都是废话。</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>notch</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>n. 刻痕： a V-shaped cut. Such a cut used for keeping a record
 v. 通过努力获得： to obtain (as a goal) through effort</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>a stunning performance that notched up a second Academy Award for the actor  出 色 的 表演 为 该演 员拿到了第二座小金人</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>adj. 新奇的： strikingly new, unusual, or different</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>a novel scheme to collect money  一种新颖的筹钱手段</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2362,17 +2374,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>noxious</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 有害的，有毒的： harmful to living things; injurious to health</t>
+          <t>adj. 新奇的： strikingly new, unusual, or different</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>noxious waste  有害的废弃物</t>
+          <t>a novel scheme to collect money  一种新颖的筹钱手段</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2384,17 +2396,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>nuance</t>
+          <t>noxious</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 细微的差异： a subtle distinction or variation</t>
+          <t>adj. 有害的，有毒的： harmful to living things; injurious to health</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>a poem of little depth and nuance  一首没有什么深度、没有什么辨识度的诗</t>
+          <t>noxious waste  有害的废弃物</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2406,43 +2418,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>nuance</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n. 细微的差异： a subtle distinction or variation</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>a poem of little depth and nuance  一首没有什么深度、没有什么辨识度的诗</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>nudge</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>vt. 用肘推以引起注意： to seek the attention of by a push of the elbow
 vt. 说服某人做某事： to try to persuade (someone) through earnest appeals to follow a course ofaction</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>accidentally nudged me as he squeezed past  他过去的时候不小心用肘碰到了我
 the car salesman nudged me into taking a test-drive  汽车销售员说服我进行试驾</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>nugatory</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>adj. 无关紧要的： of little or no consequence; inconsequential</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>the book is entertaining, but its contributions to Shakespearean scholarship are nugatory  这 本 书 娱 乐性不错，但是对于莎士比亚研究的贡献微不足道</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2452,43 +2464,43 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>nugatory</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>adj. 无关紧要的： of little or no consequence; inconsequential</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>the book is entertaining, but its contributions to Shakespearean scholarship are nugatory  这 本 书 娱 乐性不错，但是对于莎士比亚研究的贡献微不足道</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>nurture</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>vt. 提供营养： to supply with nourishment
 vt. 培育，培养： to provide (someone) with moral or spiritual understanding</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>nurtured her children through the winters with home-cooked soup  一整个冬天都给孩子们喂自制的汤
 he feels that his lifelong practice of reading the Bible daily has nurtured him in ways he cannot describe</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>oath</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>n. 誓言： a solemn, formal declaration or promise to fulfill a pledge</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>an oath to defend the nation  保卫祖国的誓言</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2498,43 +2510,43 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>oath</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n. 誓言： a solemn, formal declaration or promise to fulfill a pledge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>an oath to defend the nation  保卫祖国的誓言</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>obdurate</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 固执的： resistant to persuasion or softening influences
 adj. 冷酷无情的： having or showing a lack of sympathy or tender feelings</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>She is known for her obdurate determination.   她以坚定不移著称。
 the obdurate refusal of the crotchety old man to let the neighborhood kids retrieve their ball from hisbackyard  那个怪老头冷酷无情地拒绝了孩子们进他后院找球的请求</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>obedient</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>adj. 服从的，顺从的： submissive to the restraint or command of authority</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>that girl is so obedient that she does everything the first time she is asked  这个妹子如此顺从，叫她做事随叫随到</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2544,17 +2556,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>obeisance</t>
+          <t>obedient</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 敬礼，尊重： a movement of the body made in token of respect or submission</t>
+          <t>adj. 服从的，顺从的： submissive to the restraint or command of authority</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>makes obeisance to her mentors  向她的导师们致敬</t>
+          <t>that girl is so obedient that she does everything the first time she is asked  这个妹子如此顺从，叫她做事随叫随到</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2566,17 +2578,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>obfuscate</t>
+          <t>obeisance</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vt. 使困惑，使模糊： to make so confused or opaque as to be difficult to perceive or understand</t>
+          <t>n. 敬礼，尊重： a movement of the body made in token of respect or submission</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>obfuscate the reader  让读者困惑</t>
+          <t>makes obeisance to her mentors  向她的导师们致敬</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2588,17 +2600,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>obligatory</t>
+          <t>obfuscate</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 强制性的： of the nature of an obligation; compulsory</t>
+          <t>vt. 使困惑，使模糊： to make so confused or opaque as to be difficult to perceive or understand</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>obligatory military service  强制性的服军役</t>
+          <t>obfuscate the reader  让读者困惑</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2610,17 +2622,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>obliging</t>
+          <t>obligatory</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adj. 乐于助人的： willing to do favors</t>
+          <t>adj. 强制性的： of the nature of an obligation; compulsory</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>an obliging concierge used his pull to get us reservations at the town's hottest restaurant  一 个 好 心 的看房人利用他的影响力帮我们在镇上最火爆的餐厅订到了座</t>
+          <t>obligatory military service  强制性的服军役</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2632,17 +2644,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>oblique</t>
+          <t>obliging</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 斜的： inclined or twisted to one side</t>
+          <t>adj. 乐于助人的： willing to do favors</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>gave the eavesdropper an oblique glance  给了偷听者一个白眼</t>
+          <t>an obliging concierge used his pull to get us reservations at the town's hottest restaurant  一 个 好 心 的看房人利用他的影响力帮我们在镇上最火爆的餐厅订到了座</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2654,17 +2666,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>obliterate</t>
+          <t>oblique</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>vt. 除去： to remove from existence</t>
+          <t>adj. 斜的： inclined or twisted to one side</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>the March snowstorm obliterated our hopes for an early spring  三月的暴风雪摧毁了我们对于一个早春的念想</t>
+          <t>gave the eavesdropper an oblique glance  给了偷听者一个白眼</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2676,17 +2688,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>oblivious</t>
+          <t>obliterate</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 不知道的，不知情的： lacking conscious awareness; not informed about or aware of something</t>
+          <t>vt. 除去： to remove from existence</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">He seemed oblivious to the fact that he had hurt her.   他似乎并不在意他伤害了她.  </t>
+          <t>the March snowstorm obliterated our hopes for an early spring  三月的暴风雪摧毁了我们对于一个早春的念想</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2698,15 +2710,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>obloquy</t>
+          <t>oblivious</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 谩骂，诽谤： abusively detractive language or utterance; calumny</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>adj. 不知道的，不知情的： lacking conscious awareness; not informed about or aware of something</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He seemed oblivious to the fact that he had hurt her.   他似乎并不在意他伤害了她.  </t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2716,19 +2732,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>obscure</t>
+          <t>obloquy</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 含义模糊的： not clearly understood or expressed; having an often intentionally veiled oruncertain meaning</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>a fantasy writer who likes to put lots of obscure references in her tales of wizards and warlocks  一 个 喜欢在巫师故事中添加很多含义模糊的引用的魔幻小说作家</t>
-        </is>
-      </c>
+          <t>n. 谩骂，诽谤： abusively detractive language or utterance; calumny</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2738,17 +2750,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>obsequious</t>
+          <t>obscure</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adj. 谄媚的，奴性的： marked by or exhibiting a fawning attentiveness</t>
+          <t>adj. 含义模糊的： not clearly understood or expressed; having an often intentionally veiled oruncertain meaning</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>She's constantly followed by obsequious assistants who will do anything.   她总是有一群谄媚的跟班，原意为她赴汤蹈火。</t>
+          <t>a fantasy writer who likes to put lots of obscure references in her tales of wizards and warlocks  一 个 喜欢在巫师故事中添加很多含义模糊的引用的魔幻小说作家</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2760,17 +2772,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>obsess</t>
+          <t>obsequious</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 迷住，使困扰： to haunt or excessively preoccupy the mind of</t>
+          <t>adj. 谄媚的，奴性的： marked by or exhibiting a fawning attentiveness</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>The war obsesses her—she talks about nothing else.   她被战争彻底迷住了，张口闭口都谈这个。</t>
+          <t>She's constantly followed by obsequious assistants who will do anything.   她总是有一群谄媚的跟班，原意为她赴汤蹈火。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2782,17 +2794,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>obstinate</t>
+          <t>obsess</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 固执的： perversely adhering to an opinion, purpose, or course in spite of reason, arguments, orpersuasion</t>
+          <t>vt. 迷住，使困扰： to haunt or excessively preoccupy the mind of</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>obstinate resistance to change  坚决抵制改变</t>
+          <t>The war obsesses her—she talks about nothing else.   她被战争彻底迷住了，张口闭口都谈这个。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2804,67 +2816,67 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>obstinate</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>adj. 固执的： perversely adhering to an opinion, purpose, or course in spite of reason, arguments, orpersuasion</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>obstinate resistance to change  坚决抵制改变</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>obstreperous</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>adj. 难驾驭的，任性的： stubbornly resistant to control; unruly; given to resisting authority or another'scontrol
 adj. 吵闹的： engaging in or marked by loud and insistent cries especially of protest</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>the club's president was at his wits' end with obstreperous members who refused to cooperate  俱 乐 部主席拿那些不合作的会员一点办法都没有
 an obstreperous crowd protesting the government's immigration policy  一堆吵闹的民众游行抗议政府的移民政策</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>obstruct</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>vt. 妨碍，制造困难： to impede, retard, or interfere with; hinder; to create difficulty for the work oractivity of
 vt. 阻挡： to prevent passage through by filling with something</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>He was charged with obstructing justice by lying to investigators.  他被指控向检察官说谎，妨碍司法。
 an unobstructed view  无阻碍的视野</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>obtuse</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>adj. 愚钝的： not having or showing an ability to absorb ideas readily</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Are you being deliberately obtuse? 你是故意装笨吗?</t>
-        </is>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2874,11 +2886,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>obviate</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+          <t>obtuse</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>adj. 愚钝的： not having or showing an ability to absorb ideas readily</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Are you being deliberately obtuse? 你是故意装笨吗?</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2888,43 +2908,35 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>obviate</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>occult</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>adj. 难以理解的： not easily apprehended or understood : abstruse, mysterious
 v. 使隐藏或神秘： to keep secret or shut off from view</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>an occult reference in the text that has puzzled scholars  文章中一处晦涩的难倒了学者们的引注
 occulted their house from prying eyes by planting large trees around it  在住所周围种满大树防止别人偷窥 || the actor's private life had long been occulted by a contrived public persona  演员的私人生活被一个精心打造的公众形象所遮掩</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>odium</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>n. 憎恶，讨厌： strong dislike, contempt, or aversion</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>time did nothing to diminish the odium in which the traitor lived out his days  时间也没有减少大家对这个叛徒的唾弃</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2934,17 +2946,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>offbeat</t>
+          <t>odium</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 不平常的： noticeably different from what is generally found or experienced</t>
+          <t>n. 憎恶，讨厌： strong dislike, contempt, or aversion</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>this writer has an enjoyably offbeat sense of humor  这个作者笑点很奇特</t>
+          <t>time did nothing to diminish the odium in which the traitor lived out his days  时间也没有减少大家对这个叛徒的唾弃</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2956,17 +2968,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>offhand</t>
+          <t>offbeat</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 即兴的，没有准备的： without premeditation or preparation</t>
+          <t>adj. 不平常的： noticeably different from what is generally found or experienced</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>couldn't give the figures offhand</t>
+          <t>this writer has an enjoyably offbeat sense of humor  这个作者笑点很奇特</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2978,17 +2990,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>officious</t>
+          <t>offhand</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 多管闲事的： thrusting oneself where one is not welcome or invited</t>
+          <t>adj. 即兴的，没有准备的： without premeditation or preparation</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>an officious little man who was always telling everyone else how to do their jobs  一个多管闲事的人，总喜欢对他人的事情指手画脚</t>
+          <t>couldn't give the figures offhand</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3000,17 +3012,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>offish</t>
+          <t>officious</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 冷淡的： Inclined to be distant and reserved; aloof</t>
+          <t>adj. 多管闲事的： thrusting oneself where one is not welcome or invited</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>consistently surly and offish with the would-be suitors who came calling  对于追求者总是阴沉并且冷淡</t>
+          <t>an officious little man who was always telling everyone else how to do their jobs  一个多管闲事的人，总喜欢对他人的事情指手画脚</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3022,17 +3034,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ominous</t>
+          <t>offish</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 凶兆的： of or being an omen, especially an evil one</t>
+          <t>adj. 冷淡的： Inclined to be distant and reserved; aloof</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>an ominous threat of war  战争来临的凶兆</t>
+          <t>consistently surly and offish with the would-be suitors who came calling  对于追求者总是阴沉并且冷淡</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3044,17 +3056,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>omniscient</t>
+          <t>ominous</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 无所不知的： possessed of universal or complete knowledge</t>
+          <t>adj. 凶兆的： of or being an omen, especially an evil one</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>an omniscient deity  无所不知的神</t>
+          <t>an ominous threat of war  战争来临的凶兆</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3066,17 +3078,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>onerous</t>
+          <t>omniscient</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 费时间花心思的： requiring much time, effort, or careful attention</t>
+          <t>adj. 无所不知的： possessed of universal or complete knowledge</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>building the scale model of the frigate was an onerous task  建造军舰的小模型非常花时间</t>
+          <t>an omniscient deity  无所不知的神</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3088,40 +3100,40 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>onerous</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>adj. 费时间花心思的： requiring much time, effort, or careful attention</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>building the scale model of the frigate was an onerous task  建造军舰的小模型非常花时间</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>opaque</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>adj. 不透光的：impenetrable by light; neither transparent nor translucent
 adj. 晦涩的：so obscure as to be unintelligible</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>opaque prose  晦涩的诗歌</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>opine</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>vt. 表达观点： to express opinions</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>You can opine about any subject you like.   你可以畅所欲言。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3133,17 +3145,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>opportune</t>
+          <t>opine</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 合适的，适当的： suitable or convenient for a particular occurrence</t>
+          <t>vt. 表达观点： to express opinions</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>an opportune moment  方便的时机</t>
+          <t>You can opine about any subject you like.   你可以畅所欲言。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3155,39 +3167,43 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>opportune</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>adj. 合适的，适当的： suitable or convenient for a particular occurrence</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>an opportune moment  方便的时机</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>opprobrious</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>adj. 辱骂的: expressing contemptuous reproach; scornful or abusive
 adj. 臭名昭著的，令人鄙视的: bringing disgrace; shameful or infamous</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>opprobrious language  脏话
 opprobrious conduct  令人鄙视的行为</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>oration</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>n. （颇有野心、自高自大的）演说： a speech delivered in a high-flown or pompous manner</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3197,19 +3213,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>oration</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vt. 确定方向，使熟悉或适应： to set or arrange in any determinate position especially in relation tothe points of the compass; to make familiar with or adjusted to facts, principles, or a situation</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>orient students toward a career in medicine  指导学生从事医学的职业道路</t>
-        </is>
-      </c>
+          <t>n. （颇有野心、自高自大的）演说： a speech delivered in a high-flown or pompous manner</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3219,43 +3231,43 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>orient</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>vt. 确定方向，使熟悉或适应： to set or arrange in any determinate position especially in relation tothe points of the compass; to make familiar with or adjusted to facts, principles, or a situation</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>orient students toward a career in medicine  指导学生从事医学的职业道路</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>original</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>adj. 创新的： independent and creative in thought or action :inventive
 adj. 最初的，最早的： coming before all others in time or order</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>The car has a highly original design.   这车的设计很新颖
 the original plan had to be discarded when the situation changed drastically  当环境发生剧烈变化时，最初的计划就该被放弃</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>orthodox</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>adj. 传统的： following or agreeing with established form, custom, or rules</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>He believes in the benefits of both orthodox medicine and alternative medicine.  他 既 相 信传 统 药物 又相信替代药物的效用。</t>
-        </is>
-      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3265,38 +3277,38 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>orthodox</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>adj. 传统的： following or agreeing with established form, custom, or rules</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>He believes in the benefits of both orthodox medicine and alternative medicine.  他 既 相 信传 统 药物 又相信替代药物的效用。</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>oscillate</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vi. 振动，摇晃： to swing backward and forward like a pendulum
 v. 犹豫，变化： vary between opposing beliefs, feelings, or theories</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ossify</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>vi. 硬化，僵化： to become hardened or conventional and opposed to change</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>a disease that ossifies the joints  一种会使关节僵化的疾病</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3306,17 +3318,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ostentatious</t>
+          <t>ossify</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>adj. 炫耀卖弄的： marked by or fond of conspicuous or vainglorious and sometimes pretentiousdisplay</t>
+          <t>vi. 硬化，僵化： to become hardened or conventional and opposed to change</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>wears an ostentatious diamond ring on her finger  她手指上戴着一枚巨大的钻戒</t>
+          <t>a disease that ossifies the joints  一种会使关节僵化的疾病</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3328,17 +3340,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ostracize</t>
+          <t>ostentatious</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>vt. 驱逐： to exclude from a group</t>
+          <t>adj. 炫耀卖弄的： marked by or fond of conspicuous or vainglorious and sometimes pretentiousdisplay</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">He was ostracized from the scientific community for many years because of his radical political beliefs.  </t>
+          <t>wears an ostentatious diamond ring on her finger  她手指上戴着一枚巨大的钻戒</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3350,43 +3362,43 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>ostracize</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vt. 驱逐： to exclude from a group</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He was ostracized from the scientific community for many years because of his radical political beliefs.  </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>oust</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>vt. 免职： to remove from a position of prominence or power (as a throne)
 v. 驱逐： to drive or force out</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>be ousted from power  被赶下台
 she was ousted from her job after it was proven she'd been pilfering company supplies  她 贪 污 公 司 财 物这事被证实后，她被驱逐了</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>outgoing</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>adj. 友好的，外向的： openly friendly and responsive: extroverted</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>a salesman whose aggressively outgoing personality could sometimes be overbearing  一 个 销 售 员 如 果过于热情会让人不能忍</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3396,17 +3408,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>outlandish</t>
+          <t>outgoing</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 古怪的，奇异的：strikingly out of the ordinary: bizarre</t>
+          <t>adj. 友好的，外向的： openly friendly and responsive: extroverted</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>an outlandish costume  奇装异服</t>
+          <t>a salesman whose aggressively outgoing personality could sometimes be overbearing  一 个 销 售 员 如 果过于热情会让人不能忍</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3418,17 +3430,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>outmaneuver</t>
+          <t>outlandish</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>vt. 以策略取胜： to overcome (an opponent) by artful, clever maneuvering</t>
+          <t>adj. 古怪的，奇异的：strikingly out of the ordinary: bizarre</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>outmaneuvered his congressional opponent  以计谋战胜了国会的对手</t>
+          <t>an outlandish costume  奇装异服</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3440,17 +3452,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>outset</t>
+          <t>outmaneuver</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. 开端，开始： beginning, start</t>
+          <t>vt. 以策略取胜： to overcome (an opponent) by artful, clever maneuvering</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>I wish you'd mentioned this problem at the outset.   我希望你开门见山就提到这个问题。</t>
+          <t>outmaneuvered his congressional opponent  以计谋战胜了国会的对手</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3462,17 +3474,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>outwit</t>
+          <t>outset</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>v. 瞒骗，以智取胜： to surpass in cleverness or cunning; outsmart</t>
+          <t>n. 开端，开始： beginning, start</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>a plan to outwit their opponents at their own game  在擅长的领域智取对手的计划</t>
+          <t>I wish you'd mentioned this problem at the outset.   我希望你开门见山就提到这个问题。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3484,17 +3496,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>overbearing</t>
+          <t>outwit</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 专横傲慢的： domineering in manner; arrogant</t>
+          <t>v. 瞒骗，以智取胜： to surpass in cleverness or cunning; outsmart</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Her husband's overbearing manner made her miserable.  她的丈夫专横傲慢，让她痛不欲生。</t>
+          <t>a plan to outwit their opponents at their own game  在擅长的领域智取对手的计划</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3506,17 +3518,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>overlap</t>
+          <t>overbearing</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vt. 重叠，重复： to occupy the same area in part</t>
+          <t>adj. 专横傲慢的： domineering in manner; arrogant</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Baseball season overlaps football season in September.  棒球赛季和橄榄球赛季在九月有时间重合。</t>
+          <t>Her husband's overbearing manner made her miserable.  她的丈夫专横傲慢，让她痛不欲生。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3528,17 +3540,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>overt</t>
+          <t>overlap</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>adj. 明显的，公开的： open and observable; not hidden, concealed, or secret</t>
+          <t>vt. 重叠，重复： to occupy the same area in part</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>overt hostility  公然的敌意</t>
+          <t>Baseball season overlaps football season in September.  棒球赛季和橄榄球赛季在九月有时间重合。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3550,40 +3562,40 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>overt</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>adj. 明显的，公开的： open and observable; not hidden, concealed, or secret</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>overt hostility  公然的敌意</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>overture</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 前言： an introductory section or part, as of a poem; a prelude
 n. 序曲： an instrumental composition intended especially as an introduction to an extended work,such as an opera or oratorio</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>the parade down Main Street served as the overture for a weekend of fun and festivities  主 干 道 上 的游行活动拉开了一周节日活动的序幕</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>oxymoron</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>n. 矛盾修饰法： a combination of contradictory or incongruous words</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>The phrase “cruel kindness” is an oxymoron.   “残酷的仁慈”就是矛盾修饰法的一个例子。|| The phrase“Broadway rock musical” is an oxymoron.   Broadway doesn't have the nerve to let the really hard stuff in the house.  “百老汇的摇滚音乐剧”是个反讽。百老汇才不会允许吵吵闹闹的东西在里面演出。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3595,17 +3607,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>pacify</t>
+          <t>oxymoron</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>vt. 使平静，安慰： to ease the anger or agitation of</t>
+          <t>n. 矛盾修饰法： a combination of contradictory or incongruous words</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>pacify a crying child  安抚一个哭泣的孩子</t>
+          <t>The phrase “cruel kindness” is an oxymoron.   “残酷的仁慈”就是矛盾修饰法的一个例子。|| The phrase“Broadway rock musical” is an oxymoron.   Broadway doesn't have the nerve to let the really hard stuff in the house.  “百老汇的摇滚音乐剧”是个反讽。百老汇才不会允许吵吵闹闹的东西在里面演出。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3617,17 +3629,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>padding</t>
+          <t>pacify</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. 夸张，废话： the representation of something in terms that go beyond the facts</t>
+          <t>vt. 使平静，安慰： to ease the anger or agitation of</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>that feature writer is sometimes guilty of padding, but he keeps it from getting out of hand  这 作 者 有 时候夸夸其谈，但是保持了适度</t>
+          <t>pacify a crying child  安抚一个哭泣的孩子</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3639,17 +3651,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>paean</t>
+          <t>padding</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 欢乐颂： a joyous song or hymn of praise, tribute, thanksgiving, or triumph</t>
+          <t>n. 夸张，废话： the representation of something in terms that go beyond the facts</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>her retirement party featured many paeans for her long years of service to the company  她 的 退 休 派对满是对她多年在公司辛勤工作的赞颂</t>
+          <t>that feature writer is sometimes guilty of padding, but he keeps it from getting out of hand  这 作 者 有 时候夸夸其谈，但是保持了适度</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3661,17 +3673,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>painstaking</t>
+          <t>paean</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>adj. 煞费苦心的： taking pains: expending, showing, or involving diligent care and effort</t>
+          <t>n. 欢乐颂： a joyous song or hymn of praise, tribute, thanksgiving, or triumph</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>It took months of painstaking research to write the book.  这本书的写作耗费了几个月的苦心研究。</t>
+          <t>her retirement party featured many paeans for her long years of service to the company  她 的 退 休 派对满是对她多年在公司辛勤工作的赞颂</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3683,17 +3695,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>palatable</t>
+          <t>painstaking</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 感到愉悦满足的： giving pleasure or contentment to the mind or senses</t>
+          <t>adj. 煞费苦心的： taking pains: expending, showing, or involving diligent care and effort</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>I always associate the palatable aroma of roasting turkey with Thanksgiving.   我总是把香喷喷的烤火鸡的味道和感恩节联系起来</t>
+          <t>It took months of painstaking research to write the book.  这本书的写作耗费了几个月的苦心研究。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3705,17 +3717,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>palatial</t>
+          <t>palatable</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 宫殿般奢华的： of the nature of a palace, as in spaciousness or ornateness</t>
+          <t>adj. 感到愉悦满足的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a palatial penthouse apartment  一套豪华的顶层公寓</t>
+          <t>I always associate the palatable aroma of roasting turkey with Thanksgiving.   我总是把香喷喷的烤火鸡的味道和感恩节联系起来</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3727,17 +3739,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>pall</t>
+          <t>palatial</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>vi. 失去兴趣： to lose in interest or attraction</t>
+          <t>adj. 宫殿般奢华的： of the nature of a palace, as in spaciousness or ornateness</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>His humor began to pall on us.   他的幽默开始使我们生腻了。</t>
+          <t>a palatial penthouse apartment  一套豪华的顶层公寓</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3749,17 +3761,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>palliate</t>
+          <t>pall</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>v. 平息，减轻： to make less severe or intense; mitigate</t>
+          <t>vi. 失去兴趣： to lose in interest or attraction</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>palliative drug  缓解剂</t>
+          <t>His humor began to pall on us.   他的幽默开始使我们生腻了。</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3771,43 +3783,43 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>palliate</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>v. 平息，减轻： to make less severe or intense; mitigate</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>palliative drug  缓解剂</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>pallid</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>adj. 无生气的，缺乏活力的： lacking in radiance or vitality; dull
 adj. 苍白无血色的： having an abnormally pale or wan complexion</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>The movie is a pallid version of the classic novel.   这部经典小说改编的电影很苍白无力。
 a pallid girl who looked as though she'd never seen the sun  一个面色苍白的姑娘，仿佛从来没有晒过太阳</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>palmy</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>adj. 繁荣的： marked by prosperity</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>the palmy days of the British drama  英国戏剧的繁荣时期</t>
-        </is>
-      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3817,22 +3829,44 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>palmy</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>adj. 繁荣的： marked by prosperity</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>the palmy days of the British drama  英国戏剧的繁荣时期</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>palpable</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 摸得到的： capable of being touched or felt
 adj. 明显的，易觉察的： easily perceived; obvious</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>a small but palpable lump in my neck  我脖子上有一块小但是能摸得到的肿块
 a palpable difference  易觉察的差别</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
